--- a/Data Collection Sim 0.xlsx
+++ b/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB482B-E31E-4675-910F-3B36D80CE465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB597327-A529-4813-9EEF-48287FCF36AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-22608" yWindow="324" windowWidth="21600" windowHeight="11388" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Set9" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$61</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$62:$E$161</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Set4'!$E$4</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Set4'!$E$5:$E$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Set4'!$E$61</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Set4'!$E$62:$E$161</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="111">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>10000kbps</t>
-  </si>
-  <si>
-    <t>too long</t>
   </si>
   <si>
     <t>7 - Initial transaction</t>
@@ -684,7 +681,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,6 +738,9 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,10 +753,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,6 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
@@ -888,7 +889,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Set1'!$K$23:$O$23</c:f>
+                <c:f>'Set1'!$L$23:$P$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -912,7 +913,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Set1'!$K$23:$O$23</c:f>
+                <c:f>'Set1'!$L$23:$P$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -950,24 +951,12 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>'Set1'!$B$52:$F$52</c:f>
+              <c:f>'Set1'!$B$52:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.65907088731205998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96447097937686022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89090111111418024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.91610186017854023</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0695115236070001</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="5">
+                  <c:v>115.854555972505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7975,7 +7964,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8013,7 +8002,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-BA23-47F0-8325-162A3EB2469F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -8041,7 +8030,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8079,7 +8068,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{00000000-92AE-4E86-80B1-3A198ACB5431}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Standardized </cx:v>
             </cx:txData>
           </cx:tx>
@@ -18487,13 +18476,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
@@ -19653,11 +19642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:A47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19701,7 +19690,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -19732,7 +19721,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -19776,7 +19765,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -19788,7 +19777,7 @@
         <v>0.13695052585936646</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E40" si="0">LN(C3)/(C3)</f>
+        <f t="shared" ref="E3:E41" si="0">LN(C3)/(C3)</f>
         <v>0.14978661367769955</v>
       </c>
       <c r="F3" s="1">
@@ -19818,7 +19807,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -19826,7 +19815,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D36" si="1">2*LOG(C4)/(C4-1)</f>
+        <f t="shared" ref="D4:D37" si="1">2*LOG(C4)/(C4-1)</f>
         <v>6.9345714462694649E-2</v>
       </c>
       <c r="E4" s="1">
@@ -19864,7 +19853,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -19907,68 +19896,71 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="35">
+        <v>500</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" ref="D6" si="2">2*LOG(C6)/(C6-1)</f>
+        <v>1.0817515047438954E-2</v>
+      </c>
+      <c r="E6" s="35">
+        <f t="shared" ref="E6" si="3">LN(C6)/(C6)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F6" s="35">
+        <f>E6</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
+        <v>10</v>
+      </c>
+      <c r="I6" s="35">
+        <v>100</v>
+      </c>
+      <c r="J6" s="35">
+        <v>1</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="35">
+        <v>50</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>6.006006006006006E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="F6" s="1">
-        <f>E6</f>
+      <c r="F7" s="1">
+        <f>E7</f>
         <v>6.9077552789821367E-3</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0008000800080011E-4</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.210340371976184E-4</v>
-      </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="22"/>
       <c r="H7" s="1">
         <v>10</v>
@@ -19992,33 +19984,29 @@
         <v>50</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
+      <c r="A8" s="36"/>
+      <c r="B8" s="4">
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="1">
-        <f>2*LOG(C8)/(C8-1)</f>
-        <v>4.0404040404040407E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.0008000800080011E-4</v>
       </c>
       <c r="E8" s="1">
-        <f>LN(C8)/(C8)</f>
-        <v>4.6051701859880917E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.7E-2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>9.210340371976184E-4</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="22"/>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -20036,16 +20024,18 @@
         <v>10</v>
       </c>
       <c r="N8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
@@ -20069,7 +20059,7 @@
         <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
@@ -20084,23 +20074,23 @@
         <v>50</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
       <c r="B10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C10)/(C10-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f>LN(C10)/(C10)</f>
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F10" s="1">
@@ -20114,7 +20104,7 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>8</v>
@@ -20129,100 +20119,103 @@
         <v>50</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="26">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>100</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26">
+      <c r="G11" s="22"/>
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="1">
         <v>100</v>
       </c>
-      <c r="J11" s="26">
-        <v>20</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="26">
-        <v>30</v>
-      </c>
-      <c r="T11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="N11" s="1">
+        <v>50</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="26">
         <v>100</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="26">
         <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="1">
+      <c r="G12" s="26"/>
+      <c r="H12" s="26">
         <v>10</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="26">
         <v>100</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="26">
+        <v>20</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="26">
+        <v>30</v>
+      </c>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6">
         <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="6">
-        <v>2</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -20252,7 +20245,7 @@
         <v>8</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>10</v>
@@ -20262,9 +20255,9 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -20294,7 +20287,7 @@
         <v>8</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>10</v>
@@ -20304,9 +20297,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
@@ -20336,7 +20329,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>10</v>
@@ -20346,9 +20339,9 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
@@ -20378,7 +20371,7 @@
         <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>10</v>
@@ -20387,10 +20380,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
       <c r="B17" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
@@ -20420,7 +20413,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>10</v>
@@ -20429,12 +20422,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1</v>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="6">
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
@@ -20448,8 +20439,7 @@
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F18" s="1">
-        <f>E18</f>
-        <v>4.6051701859880917E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="1">
@@ -20465,35 +20455,36 @@
         <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
         <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>500</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>1.0817515047438954E-2</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>1.2429216196844383E-2</v>
+        <v>4.6051701859880917E-2</v>
       </c>
       <c r="F19" s="1">
-        <v>1.243E-2</v>
+        <f>E19</f>
+        <v>4.6051701859880917E-2</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="1">
@@ -20515,16 +20506,15 @@
         <v>10</v>
       </c>
       <c r="N19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="20">
         <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="20">
-        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>500</v>
@@ -20542,7 +20532,7 @@
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
@@ -20563,33 +20553,31 @@
         <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
+      <c r="A21" s="39"/>
+      <c r="B21" s="20">
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>4.0404040404040407E-2</v>
+        <v>1.0817515047438954E-2</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>4.6051701859880917E-2</v>
+        <v>1.2429216196844383E-2</v>
       </c>
       <c r="F21" s="1">
-        <v>4.7E-2</v>
+        <v>1.243E-2</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
         <v>100</v>
@@ -20598,7 +20586,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>7</v>
@@ -20607,13 +20595,18 @@
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="11">
-        <v>2</v>
+      <c r="A22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
@@ -20640,7 +20633,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>7</v>
@@ -20653,9 +20646,9 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="10">
-        <v>3</v>
+      <c r="A23" s="36"/>
+      <c r="B23" s="11">
+        <v>2</v>
       </c>
       <c r="C23" s="1">
         <v>100</v>
@@ -20682,7 +20675,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>7</v>
@@ -20695,9 +20688,9 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="11">
-        <v>4</v>
+      <c r="A24" s="36"/>
+      <c r="B24" s="10">
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <v>100</v>
@@ -20724,7 +20717,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>7</v>
@@ -20737,9 +20730,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="10">
-        <v>5</v>
+      <c r="A25" s="36"/>
+      <c r="B25" s="11">
+        <v>4</v>
       </c>
       <c r="C25" s="1">
         <v>100</v>
@@ -20766,7 +20759,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>7</v>
@@ -20779,17 +20772,15 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="12">
-        <v>1</v>
+      <c r="A26" s="36"/>
+      <c r="B26" s="10">
+        <v>5</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
       </c>
       <c r="D26" s="1">
-        <f>2*LOG(C26)/(C26-1)</f>
+        <f t="shared" si="1"/>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E26" s="1">
@@ -20801,7 +20792,7 @@
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
@@ -20810,7 +20801,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>7</v>
@@ -20821,14 +20812,13 @@
       <c r="N26" s="1">
         <v>100</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
+      <c r="A27" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>100</v>
@@ -20846,7 +20836,7 @@
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
@@ -20866,17 +20856,20 @@
       <c r="N27" s="1">
         <v>100</v>
       </c>
+      <c r="P27" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>100</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="1"/>
+        <f>2*LOG(C28)/(C28-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E28" s="1">
@@ -20888,7 +20881,7 @@
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -20910,9 +20903,9 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>100</v>
@@ -20930,7 +20923,7 @@
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I29" s="1">
         <v>100</v>
@@ -20952,9 +20945,9 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>100</v>
@@ -20972,7 +20965,7 @@
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
@@ -20994,9 +20987,9 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>100</v>
@@ -21014,7 +21007,7 @@
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
@@ -21036,11 +21029,9 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="14">
-        <v>1</v>
+      <c r="A32" s="36"/>
+      <c r="B32" s="12">
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>100</v>
@@ -21058,7 +21049,7 @@
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -21073,16 +21064,18 @@
         <v>7</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="N32" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+      <c r="A33" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="B33" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
         <v>100</v>
@@ -21115,16 +21108,16 @@
         <v>7</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
@@ -21157,16 +21150,16 @@
         <v>7</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N34" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
         <v>100</v>
@@ -21199,16 +21192,16 @@
         <v>7</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N35" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1">
         <v>100</v>
@@ -21241,59 +21234,62 @@
         <v>7</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N36" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="23">
-        <v>1</v>
+      <c r="A37" s="36"/>
+      <c r="B37" s="14">
+        <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>500</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="22">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1.2429216196844383E-2</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="22">
-        <v>1</v>
-      </c>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G37" s="22"/>
       <c r="H37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="1">
         <v>100</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="K37" s="22" t="s">
+      <c r="K37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="28" t="s">
-        <v>10</v>
+      <c r="M37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="N37" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="B38" s="23">
-        <v>2</v>
-      </c>
-      <c r="C38" s="22">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
         <v>500</v>
       </c>
       <c r="D38" s="1"/>
@@ -21303,9 +21299,9 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="22">
-        <v>2</v>
-      </c>
-      <c r="H38" s="22">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
         <v>2</v>
       </c>
       <c r="I38" s="22">
@@ -21323,14 +21319,14 @@
       <c r="M38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="22">
         <v>500</v>
@@ -21342,7 +21338,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="22">
         <v>2</v>
@@ -21367,9 +21363,9 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="22">
         <v>500</v>
@@ -21381,7 +21377,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H40" s="22">
         <v>2</v>
@@ -21406,21 +21402,21 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="22">
         <v>500</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="22">
-        <f t="shared" ref="E41:E47" si="2">LN(C41)/(C41)</f>
+        <f t="shared" si="0"/>
         <v>1.2429216196844383E-2</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H41" s="22">
         <v>2</v>
@@ -21444,54 +21440,51 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="27">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="23">
+        <v>5</v>
+      </c>
+      <c r="C42" s="22">
+        <v>500</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22">
+        <f t="shared" ref="E42:E48" si="4">LN(C42)/(C42)</f>
+        <v>1.2429216196844383E-2</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22">
+        <v>100</v>
+      </c>
+      <c r="H42" s="22">
+        <v>2</v>
+      </c>
+      <c r="I42" s="22">
+        <v>100</v>
+      </c>
+      <c r="J42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="24">
-        <v>100</v>
-      </c>
-      <c r="D42" s="24">
-        <f>2*LOG(C42)/(C42-1)</f>
-        <v>4.0404040404040407E-2</v>
-      </c>
-      <c r="E42" s="24">
-        <f t="shared" si="2"/>
-        <v>4.6051701859880917E-2</v>
-      </c>
-      <c r="F42" s="24">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24">
+      <c r="K42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="27">
         <v>1</v>
-      </c>
-      <c r="I42" s="24">
-        <v>100</v>
-      </c>
-      <c r="J42" s="24">
-        <v>1</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="27">
-        <v>2</v>
       </c>
       <c r="C43" s="24">
         <v>100</v>
@@ -21501,7 +21494,7 @@
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E43" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F43" s="24">
@@ -21509,7 +21502,7 @@
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="24">
         <v>100</v>
@@ -21526,24 +21519,24 @@
       <c r="M43" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="26">
+      <c r="N43" s="24">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="24">
         <v>100</v>
       </c>
       <c r="D44" s="24">
-        <f t="shared" ref="D44:D46" si="3">2*LOG(C44)/(C44-1)</f>
+        <f>2*LOG(C44)/(C44-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E44" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F44" s="24">
@@ -21551,7 +21544,7 @@
       </c>
       <c r="G44" s="24"/>
       <c r="H44" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" s="24">
         <v>100</v>
@@ -21573,19 +21566,19 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="24">
         <v>100</v>
       </c>
       <c r="D45" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D45:D47" si="5">2*LOG(C45)/(C45-1)</f>
         <v>4.0404040404040407E-2</v>
       </c>
       <c r="E45" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F45" s="24">
@@ -21593,7 +21586,7 @@
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I45" s="24">
         <v>100</v>
@@ -21615,41 +21608,41 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="27">
-        <v>5</v>
-      </c>
-      <c r="C46" s="26">
+        <v>4</v>
+      </c>
+      <c r="C46" s="24">
         <v>100</v>
       </c>
-      <c r="D46" s="26">
-        <f t="shared" si="3"/>
+      <c r="D46" s="24">
+        <f t="shared" si="5"/>
         <v>4.0404040404040407E-2</v>
       </c>
-      <c r="E46" s="26">
-        <f t="shared" si="2"/>
+      <c r="E46" s="24">
+        <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26">
-        <v>16</v>
-      </c>
-      <c r="I46" s="26">
+      <c r="G46" s="24"/>
+      <c r="H46" s="24">
+        <v>8</v>
+      </c>
+      <c r="I46" s="24">
         <v>100</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="24">
         <v>1</v>
       </c>
-      <c r="K46" s="26" t="s">
+      <c r="K46" s="24" t="s">
         <v>8</v>
       </c>
       <c r="L46" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="M46" s="26" t="s">
+      <c r="M46" s="24" t="s">
         <v>10</v>
       </c>
       <c r="N46" s="26">
@@ -21657,16 +21650,19 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="26">
         <v>100</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="26">
+        <f t="shared" si="5"/>
+        <v>4.0404040404040407E-2</v>
+      </c>
       <c r="E47" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6051701859880917E-2</v>
       </c>
       <c r="F47" s="26">
@@ -21674,7 +21670,7 @@
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I47" s="26">
         <v>100</v>
@@ -21696,35 +21692,74 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="27">
+        <v>6</v>
+      </c>
+      <c r="C48" s="26">
+        <v>100</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26">
+        <f t="shared" si="4"/>
+        <v>4.6051701859880917E-2</v>
+      </c>
+      <c r="F48" s="26">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26">
+        <v>32</v>
+      </c>
+      <c r="I48" s="26">
+        <v>100</v>
+      </c>
+      <c r="J48" s="26">
+        <v>1</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21733,19 +21768,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:X53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -21767,1385 +21802,1146 @@
       <c r="G1" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C2">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D2">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E2">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="F2">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="H1" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>75.482852674233996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>108.358154340563</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="Q3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="W3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>182.33288944551299</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>134.826828606639</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.65907088731205998</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.96447097937686022</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="16">
+        <v>0.89090111111418024</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1.0695115236070001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>215.759151188153</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="16">
+        <v>4.3022931756713616E-2</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="16">
+        <v>5.4692431251639792E-2</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="16">
+        <v>3.7836865796969356E-2</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="16">
+        <v>3.643300751720354E-2</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="16">
+        <v>8.5018079230275018E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>201.88244572619999</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="16">
         <v>0.61020000000200003</v>
       </c>
-      <c r="C3">
+      <c r="N7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0.97033335269749998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>115.660653538319</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.61020000000200003</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>116.45964582443101</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.30421806791698264</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0.38673389017613552</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0.26754704383882377</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0.26018371562067272</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0.20825091302568619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>214.338102300846</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="16">
+        <v>9.2548632847141848E-2</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0.14956310181076726</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="16">
+        <v>7.1581420666893478E-2</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="16">
+        <v>6.7695565874179089E-2</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="16">
+        <v>4.3368442776031912E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>95.323242813232</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="16">
+        <v>-0.82635308083923675</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="16">
+        <v>-0.39915931653301362</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" s="16">
+        <v>-0.5239911534935402</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" s="16">
+        <v>1.0288759383420598</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0.33027136427514669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>163.43124597162</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.43711523073040359</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.31095602990822668</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="16">
+        <v>-0.40775931790969783</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="16">
+        <v>-0.17512408574241317</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1.2772222108687623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>117.562326673806</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1.5255000000050001</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="16">
+        <v>1.2455994742050001</v>
+      </c>
+      <c r="W13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0.50855585887099997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>435.54856523996898</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0.30510000000100002</v>
+      </c>
+      <c r="W14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0.91530000000300005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>46.524248721147998</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="16">
         <v>1.8306000000060001</v>
       </c>
-      <c r="D3">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E3">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="F3">
-        <v>0.99268824148599999</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="M3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="18"/>
-      <c r="P3" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="Q15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1.2204000000040001</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U15" s="16">
+        <v>1.5506994742060001</v>
+      </c>
+      <c r="W15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="16">
+        <v>1.423855858874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>588.61394135668604</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="16">
+        <v>32.953544365603001</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="16">
+        <v>48.223548968843012</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="16">
+        <v>44.545055555709013</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="16">
+        <v>46.721194869105553</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="X16" s="16">
+        <v>6.417069141642</v>
+      </c>
+    </row>
+    <row r="17" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>86.702755354393005</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="16">
+        <v>50</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="16">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="16">
+        <v>50</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" s="16">
+        <v>51</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="7:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>371.494373231042</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="17">
+        <v>8.6457818286992824E-2</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0.10990855550168863</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="17">
+        <v>7.6036028556171878E-2</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" s="17">
+        <v>7.3177849229914702E-2</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" s="17">
+        <v>0.21854593017003399</v>
+      </c>
+    </row>
+    <row r="19" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>53.380889609467999</v>
+      </c>
+    </row>
+    <row r="20" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>441.640206569876</v>
+      </c>
+    </row>
+    <row r="21" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>147.34377417589499</v>
+      </c>
+    </row>
+    <row r="22" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>64.966739072569993</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <f>L5</f>
+        <v>0.65907088731205998</v>
+      </c>
+      <c r="M22">
+        <f>O5</f>
+        <v>0.96447097937686022</v>
+      </c>
+      <c r="N22">
+        <f>R5</f>
+        <v>0.89090111111418024</v>
+      </c>
+      <c r="O22">
+        <f>U5</f>
+        <v>0.91610186017854023</v>
+      </c>
+      <c r="P22">
+        <f>X5</f>
+        <v>1.0695115236070001</v>
+      </c>
+    </row>
+    <row r="23" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>262.57309033228199</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="V3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C4">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D4">
-        <v>0.91550000000700005</v>
-      </c>
-      <c r="E4">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="F4">
-        <v>0.94797846390899998</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C5">
-        <v>0.61022222222400002</v>
-      </c>
-      <c r="D5">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E5">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="F5">
-        <v>1.2216387008730001</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0.65907088731205998</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0.96447097937686022</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0.89090111111418024</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="W5" s="16">
-        <v>1.0695115236070001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C6">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D6">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E6">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="F6">
-        <v>1.423855858874</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="16">
-        <v>4.3022931756713616E-2</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="16">
-        <v>5.4692431251639792E-2</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>3.7836865796969356E-2</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="16">
-        <v>3.643300751720354E-2</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="16">
-        <v>8.5018079230275018E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C7">
-        <v>0.30511111111200001</v>
-      </c>
-      <c r="D7">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E7">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="F7">
-        <v>0.91560787649700004</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0.97033335269749998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C8">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="D8">
-        <v>0.61022222222400002</v>
-      </c>
-      <c r="E8">
-        <v>1.5506994742060001</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="16" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C9">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D9">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E9">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.30421806791698264</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0.38673389017613552</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0.26754704383882377</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0.26018371562067272</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0.20825091302568619</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C10">
-        <v>1.2217446471169999</v>
-      </c>
-      <c r="D10">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E10">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="16">
-        <v>9.2548632847141848E-2</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0.14956310181076726</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>7.1581420666893478E-2</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="T10" s="16">
-        <v>6.7695565874179089E-2</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" s="16">
-        <v>4.3368442776031912E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C11">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D11">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E11">
-        <v>0.91610358299899997</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="16">
-        <v>-0.82635308083923675</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="16">
-        <v>-0.39915931653301362</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>-0.5239911534935402</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="16">
-        <v>1.0288759383420598</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0.33027136427514669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C12">
-        <v>1.8306000000060001</v>
-      </c>
-      <c r="D12">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E12">
-        <v>1.221610090177</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="16">
-        <v>0.43711523073040359</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0.31095602990822668</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="16">
-        <v>-0.40775931790969783</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="16">
-        <v>-0.17512408574241317</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="W12" s="16">
-        <v>1.2772222108687623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C13">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="D13">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E13">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="16">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="T13" s="16">
-        <v>1.2455994742050001</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0.50855585887099997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C14">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D14">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="E14">
-        <v>0.91621382376299998</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C15">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D15">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E15">
-        <v>0.92268943506099999</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="16">
-        <v>1.8306000000060001</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="16">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="T15" s="16">
-        <v>1.5506994742060001</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="16">
-        <v>1.423855858874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="D16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="16">
-        <v>32.953544365603001</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="16">
-        <v>48.223548968843012</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="16">
-        <v>44.545055555709013</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="16">
-        <v>46.721194869105553</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="W16" s="16">
-        <v>6.417069141642</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C17">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D17">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E17">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="16">
+      <c r="L23">
+        <f>L18</f>
+        <v>8.6457818286992824E-2</v>
+      </c>
+      <c r="M23">
+        <f>O18</f>
+        <v>0.10990855550168863</v>
+      </c>
+      <c r="N23">
+        <f>R18</f>
+        <v>7.6036028556171878E-2</v>
+      </c>
+      <c r="O23">
+        <f>U18</f>
+        <v>7.3177849229914702E-2</v>
+      </c>
+      <c r="P23">
+        <f>X18</f>
+        <v>0.21854593017003399</v>
+      </c>
+    </row>
+    <row r="24" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>260.701079649885</v>
+      </c>
+    </row>
+    <row r="25" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>120.64841159722501</v>
+      </c>
+    </row>
+    <row r="26" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>164.653638178172</v>
+      </c>
+    </row>
+    <row r="27" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>115.59407029974</v>
+      </c>
+    </row>
+    <row r="28" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>77.676793094409007</v>
+      </c>
+    </row>
+    <row r="29" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>282.365223872554</v>
+      </c>
+    </row>
+    <row r="30" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>134.894126575325</v>
+      </c>
+    </row>
+    <row r="31" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>126.128342579772</v>
+      </c>
+    </row>
+    <row r="32" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>190.97008897622601</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>204.982459897572</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>411.15462886416498</v>
+      </c>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>22.688487693548002</v>
+      </c>
+    </row>
+    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>295.39638831480602</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>196.269730307527</v>
+      </c>
+    </row>
+    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>67.683320258291005</v>
+      </c>
+    </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>481.74514624923103</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>207.027740624659</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>71.942921234606004</v>
+      </c>
+      <c r="J41" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P41" s="40"/>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>324.92483404370103</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40">
+        <v>3</v>
+      </c>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="P42" s="40"/>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>128.518617588659</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
+      <c r="K43" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40">
+        <v>4</v>
+      </c>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="P43" s="40"/>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>275.09504881078601</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
         <v>50</v>
       </c>
-      <c r="M17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="16">
-        <v>50</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>50</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" s="16">
-        <v>51</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="16">
+      <c r="K44" s="40">
+        <v>2.36</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C18">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D18">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E18">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" s="17">
-        <v>8.6457818286992824E-2</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="17">
-        <v>0.10990855550168863</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>7.6036028556171878E-2</v>
-      </c>
-      <c r="S18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="17">
-        <v>7.3177849229914702E-2</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="W18" s="17">
-        <v>0.21854593017003399</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C19">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D19">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E19">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>0.30511111111200001</v>
-      </c>
-      <c r="C20">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D20">
-        <v>0.91550000000700005</v>
-      </c>
-      <c r="E20">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C21">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="D21">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E21">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C22">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D22">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E22">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22">
-        <f>K5</f>
-        <v>0.65907088731205998</v>
-      </c>
-      <c r="L22">
-        <f>N5</f>
-        <v>0.96447097937686022</v>
-      </c>
-      <c r="M22">
-        <f>Q5</f>
-        <v>0.89090111111418024</v>
-      </c>
-      <c r="N22">
-        <f>T5</f>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="O22">
-        <f>W5</f>
-        <v>1.0695115236070001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C23">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D23">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E23">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23">
-        <f>K18</f>
-        <v>8.6457818286992824E-2</v>
-      </c>
-      <c r="L23">
-        <f>N18</f>
-        <v>0.10990855550168863</v>
-      </c>
-      <c r="M23">
-        <f>Q18</f>
-        <v>7.6036028556171878E-2</v>
-      </c>
-      <c r="N23">
-        <f>T18</f>
-        <v>7.3177849229914702E-2</v>
-      </c>
-      <c r="O23">
-        <f>W18</f>
-        <v>0.21854593017003399</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C24">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="D24">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E24">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C25">
-        <v>0.93035661542600001</v>
-      </c>
-      <c r="D25">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E25">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C26">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D26">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E26">
-        <v>0.91572428847099996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C27">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="D27">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E27">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C28">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D28">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E28">
-        <v>0.91580119928699999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C29">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D29">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E29">
-        <v>1.220789647273</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C30">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D30">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="E30">
-        <v>1.2204000000040001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C31">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D31">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E31">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C32">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D32">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E32">
-        <v>0.91639452465600002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C33">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D33">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E33">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C34">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D34">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E34">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0.61293325438599999</v>
-      </c>
-      <c r="C35">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D35">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="E35">
-        <v>0.91533333333599998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C36">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D36">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E36">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C37">
-        <v>1.220444444448</v>
-      </c>
-      <c r="D37">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E37">
-        <v>0.91530000000300005</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C38">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D38">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E38">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C39">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D39">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E39">
-        <v>0.915326595774</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C40">
-        <v>1.526769928377</v>
-      </c>
-      <c r="D40">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E40">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C41">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D41">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E41">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="O41" s="40"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="C42">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D42">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E42">
-        <v>1.222507013815</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>10</v>
-      </c>
-      <c r="J42" s="40">
-        <v>1.2</v>
-      </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40">
-        <v>3</v>
-      </c>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="O42" s="40"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C43">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D43">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E43">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>20</v>
-      </c>
-      <c r="J43" s="40">
-        <v>1.3</v>
-      </c>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40">
+      <c r="N44" s="40"/>
+      <c r="O44" s="40">
+        <v>2.2669999999999999</v>
+      </c>
+      <c r="P44" s="40"/>
+    </row>
+    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>195.13322084120099</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="O43" s="40"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C44">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D44">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E44">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>50</v>
-      </c>
-      <c r="J44" s="40">
-        <v>2.36</v>
-      </c>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40">
-        <v>6</v>
-      </c>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="O44" s="40"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C45">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D45">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E45">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
+      <c r="J45">
         <v>100</v>
       </c>
-      <c r="J45" s="40">
+      <c r="K45" s="40">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40">
+      <c r="L45" s="40"/>
+      <c r="M45" s="40">
         <v>8</v>
       </c>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40">
+      <c r="N45" s="40"/>
+      <c r="O45" s="40">
         <v>2.8820000000000001</v>
       </c>
-      <c r="O45" s="40"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C46">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="D46">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="E46">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="H46">
+      <c r="P45" s="40"/>
+    </row>
+    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>103.63792642895901</v>
+      </c>
+      <c r="I46">
         <v>5</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1000</v>
       </c>
-      <c r="J46" s="40">
+      <c r="K46" s="40">
         <v>3.55</v>
       </c>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40">
+      <c r="L46" s="40"/>
+      <c r="M46" s="40">
         <v>12</v>
       </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40">
+      <c r="N46" s="40"/>
+      <c r="O46" s="40">
         <v>4.1079999999999997</v>
       </c>
-      <c r="O46" s="40"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C47">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="D47">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E47">
-        <v>0.61020000000200003</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="C48">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D48">
-        <v>0.91533333333599998</v>
-      </c>
-      <c r="E48">
-        <v>0.91530000000300005</v>
+      <c r="P46" s="40"/>
+    </row>
+    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>392.30318056909198</v>
+      </c>
+    </row>
+    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>468.89023599369398</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C49">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="D49">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E49">
-        <v>0.30510000000100002</v>
+      <c r="G49">
+        <v>140.42318825362801</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="C50">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="D50">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="E50">
-        <v>0.91530000000300005</v>
+      <c r="G50">
+        <v>341.09450125046197</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="C51">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="D51">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="E51">
-        <v>0.91530000000300005</v>
+      <c r="G51">
+        <v>214.36813919517701</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="7">
-        <f>AVERAGE(B2:B51)</f>
-        <v>0.65907088731205998</v>
-      </c>
-      <c r="C52" s="7">
-        <f t="shared" ref="C52" si="0">AVERAGE(C2:C51)</f>
-        <v>0.96447097937686022</v>
-      </c>
-      <c r="D52" s="7">
-        <f t="shared" ref="D52" si="1">AVERAGE(D2:D51)</f>
-        <v>0.89090111111418024</v>
-      </c>
-      <c r="E52" s="7">
-        <f t="shared" ref="E52" si="2">AVERAGE(E2:E51)</f>
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="F52" s="7">
-        <f>AVERAGE(F2:F7)</f>
-        <v>1.0695115236070001</v>
-      </c>
-      <c r="G52" s="7" t="e">
-        <f>AVERAGE(G2:G51)</f>
-        <v>#DIV/0!</v>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="44">
+        <v>115.854555972505</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>311.38048194408901</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>107.47033688200599</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>295.04579862025003</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>3.055973270285</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>99.205916725045995</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>263.19777591765398</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>202.957194341264</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>78.929086700659994</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>301.96342502124202</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>443.934189927565</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>47.417512654692999</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>177.61986579333299</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>93.278348153707995</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>283.78541313224599</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>219.40371542928801</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>376.2210226103</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>314.15390649384398</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>182.259932613026</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>75.965647347065001</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>138.47957172017399</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>32.985180864497003</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>52.283042254028999</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>142.03301635017399</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>61.174649477480003</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>401.78510693407998</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>231.43576988547301</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>24.953089168097002</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>59.881119630809003</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>345.89987002363802</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>165.960000483644</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>145.161502339658</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>801.43765520804095</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>384.53817500556602</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>316.37321431914899</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>127.668943016612</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>135.35760747539999</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>88.123859268858993</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>0.71166666666900003</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>96.344996679432001</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>124.10372662862299</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>187.07135795687401</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>89.927449309771006</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>506.78310102983698</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>128.014113039694</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>20.745411063750002</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>66.971189478723005</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>193.39721661619399</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23211,19 +23007,19 @@
         <v>1.2204000000040001</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="18"/>
       <c r="J3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="18"/>
       <c r="M3" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N3" s="18"/>
       <c r="P3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="18"/>
     </row>
@@ -23263,25 +23059,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="16">
         <v>0.91610186017854023</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="16">
         <v>0.99138745213406054</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5" s="16">
         <v>0.88866890437745838</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="16">
         <v>0.8980710464160877</v>
@@ -23301,25 +23097,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="16">
         <v>3.716910223152467E-2</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="16">
         <v>3.308078824736186E-2</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N6" s="16">
         <v>2.2883776814626361E-2</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="16">
         <v>1.1428262794991121E-2</v>
@@ -23339,25 +23135,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="16">
         <v>0.91530000000300005</v>
@@ -23377,25 +23173,25 @@
         <v>0.61020000000200003</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="16">
         <v>0.91530000000300005</v>
@@ -23453,25 +23249,25 @@
         <v>1.222772126605</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="16">
         <v>6.9077108034876628E-2</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="16">
         <v>0.10943385510667944</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="16">
         <v>8.9023431021277272E-2</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="16">
         <v>7.6926457211201796E-2</v>
@@ -23491,25 +23287,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="16">
         <v>0.95062648443506248</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="16">
         <v>-0.21523242251904318</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="16">
         <v>-0.44256535023355958</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="16">
         <v>0.28650857691477016</v>
@@ -23529,25 +23325,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="16">
         <v>-0.17350563726348589</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="16">
         <v>-0.26603416963740556</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N12" s="16">
         <v>-0.18942064705263315</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="16">
         <v>5.233044476791162E-2</v>
@@ -23567,25 +23363,25 @@
         <v>1.2204000000040001</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="16">
         <v>1.2455994742050001</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K13" s="16">
         <v>1.3510846649579999</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N13" s="16">
         <v>1.2333070988670001</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="16">
         <v>1.6622260725369999</v>
@@ -23605,25 +23401,25 @@
         <v>0.91530000000300005</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="16">
         <v>0.30510000000100002</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K14" s="16">
         <v>0.30510000000100002</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" s="16">
         <v>0.30510000000100002</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="16">
         <v>0.30510000000100002</v>
@@ -23643,25 +23439,25 @@
         <v>1.2204000000040001</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="16">
         <v>1.5506994742060001</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K15" s="16">
         <v>1.656184664959</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="16">
         <v>1.5384070988680001</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="16">
         <v>1.967326072538</v>
@@ -23681,25 +23477,25 @@
         <v>0.61178463906199998</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="16">
         <v>45.80509300892701</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="16">
         <v>99.138745213406054</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="16">
         <v>151.07371374416792</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="16">
         <v>528.96384633907564</v>
@@ -23719,25 +23515,25 @@
         <v>1.220450811913</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="16">
         <v>50</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" s="16">
         <v>100</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N17" s="16">
         <v>170</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="16">
         <v>589</v>
@@ -23757,25 +23553,25 @@
         <v>1.2204000000040001</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="17">
         <v>7.4694107430797102E-2</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" s="17">
         <v>6.5639460812256106E-2</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="17">
         <v>4.5174874047932294E-2</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="17">
         <v>2.2445183962255252E-2</v>
@@ -23856,7 +23652,7 @@
         <v>0.61020000000200003</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22">
         <f>H18</f>
@@ -27627,27 +27423,27 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" s="18"/>
       <c r="P5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="S5" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T5" s="18"/>
       <c r="V5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="18"/>
       <c r="Y5" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z5" s="18"/>
     </row>
@@ -27703,37 +27499,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="16">
         <v>30.35835334854541</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="16">
         <v>4.6450038692464597</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="16">
         <v>1.0394700224709197</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T7" s="16">
         <v>0.89921969659393997</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W7" s="16">
         <v>0.85821005760000002</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z7" s="16">
         <v>0.85210429759999984</v>
@@ -27759,37 +27555,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="16">
         <v>3.9786515116837391</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="16">
         <v>0.37843043030180157</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="16">
         <v>4.2992463624376857E-2</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T8" s="16">
         <v>3.7850881994858983E-2</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W8" s="16">
         <v>2.1018260231787159E-2</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="16">
         <v>2.1618965876333159E-2</v>
@@ -27815,37 +27611,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="16">
         <v>17.570595339522999</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="16">
         <v>4.1503227907099998</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="16">
         <v>1.0122917635570001</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T9" s="16">
         <v>0.91101600000000005</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W9" s="16">
         <v>0.90022031999999996</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="16">
         <v>0.90011015999999999</v>
@@ -27871,37 +27667,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="16">
         <v>0.67344000000000004</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T10" s="16">
         <v>0.91101600000000005</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W10" s="16">
         <v>0.90022031999999996</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="16">
         <v>0.90011015999999999</v>
@@ -27983,37 +27779,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" s="16">
         <v>791.48339257116504</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" s="16">
         <v>7.1604795289203356</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="16">
         <v>9.2417596424668347E-2</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T12" s="16">
         <v>7.1634463389437006E-2</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W12" s="16">
         <v>2.2088363158556286E-2</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="16">
         <v>2.336898427810288E-2</v>
@@ -28039,37 +27835,37 @@
         <v>0.60007359999999998</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="16">
         <v>4.4687568880047408</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="16">
         <v>5.1603461840415878</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="16">
         <v>2.2636698534198132</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T13" s="16">
         <v>-0.35131931869417699</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W13" s="16">
         <v>0.8519063509639242</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="16">
         <v>0.54937545153038503</v>
@@ -28095,37 +27891,37 @@
         <v>1.2001468799999999</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="16">
         <v>1.9200689217981888</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="16">
         <v>1.8291795233340864</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="16">
         <v>1.1325022502116975</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T14" s="16">
         <v>-9.5682782674612679E-2</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W14" s="16">
         <v>-0.31747066476646851</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="16">
         <v>-0.27156897758618631</v>
@@ -28151,37 +27947,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="16">
         <v>139.96327849712898</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="16">
         <v>14.183568125889</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q15" s="16">
         <v>1.451073014264</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T15" s="16">
         <v>1.225912408236</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W15" s="16">
         <v>0.60014688000000005</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="16">
         <v>0.60007343999999996</v>
@@ -28207,37 +28003,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="16">
         <v>3.972</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="16">
         <v>1.553891955953</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="16">
         <v>0.67344000000000004</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T16" s="16">
         <v>0.303672</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W16" s="16">
         <v>0.60014688000000005</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z16" s="16">
         <v>0.60007343999999996</v>
@@ -28263,37 +28059,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="16">
         <v>143.93527849712899</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="16">
         <v>15.737460081842</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="16">
         <v>2.1245130142640001</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T17" s="16">
         <v>1.5295844082359999</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W17" s="16">
         <v>1.2002937600000001</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z17" s="16">
         <v>1.2001468799999999</v>
@@ -28319,37 +28115,37 @@
         <v>1.2001468799999999</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="16">
         <v>1517.9176674272705</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N18" s="16">
         <v>232.25019346232298</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="16">
         <v>51.973501123545987</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T18" s="16">
         <v>44.960984829696997</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W18" s="16">
         <v>42.910502880000003</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z18" s="16">
         <v>42.605214879999991</v>
@@ -28375,37 +28171,37 @@
         <v>0.90011015999999999</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="16">
         <v>50</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="16">
         <v>50</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="16">
         <v>50</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T19" s="16">
         <v>50</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W19" s="16">
         <v>50</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z19" s="16">
         <v>50</v>
@@ -28431,37 +28227,37 @@
         <v>0.60007343999999996</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="17">
         <v>7.9953995550464541</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20" s="17">
         <v>0.76048442171066277</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="17">
         <v>8.6396590282727295E-2</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T20" s="17">
         <v>7.606419516036958E-2</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W20" s="17">
         <v>4.2237775289337733E-2</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z20" s="17">
         <v>4.3444938477421133E-2</v>
@@ -28574,7 +28370,7 @@
         <v>0.60007343999999996</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K24">
         <f>K20</f>
@@ -29224,7 +29020,7 @@
         <v>43</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -29259,43 +29055,43 @@
         <v>31</v>
       </c>
       <c r="AD4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE4" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" t="s">
-        <v>88</v>
-      </c>
       <c r="AF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR4" t="s">
         <v>98</v>
       </c>
-      <c r="AG4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>100</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
@@ -29362,7 +29158,7 @@
         <v>1.0042780206055512E-2</v>
       </c>
       <c r="AL5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM5">
         <f>COUNT(AD5:AD54)</f>
@@ -29455,7 +29251,7 @@
         <v>9.9572197939444881E-3</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM6">
         <f>AVERAGE(AD5:AD54)</f>
@@ -29548,7 +29344,7 @@
         <v>2.9957219793944487E-2</v>
       </c>
       <c r="AL7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM7">
         <f>_xlfn.STDEV.S(AD5:AD54)</f>
@@ -29577,7 +29373,7 @@
         <v>4.9957219793944484E-2</v>
       </c>
       <c r="AV7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW7">
         <f>MAX(AT5:AT54)</f>
@@ -29648,7 +29444,7 @@
         <v>6.223260863025018E-2</v>
       </c>
       <c r="AL8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM8">
         <f>MAX(AJ5:AJ54)</f>
@@ -29677,7 +29473,7 @@
         <v>4.2232608630250176E-2</v>
       </c>
       <c r="AV8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW8">
         <f>0.18845</f>
@@ -29834,7 +29630,7 @@
         <v>2.2232608630250172E-2</v>
       </c>
       <c r="AL10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM10">
         <f>0.18845</f>
@@ -33693,10 +33489,10 @@
         <v>44</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -33725,25 +33521,25 @@
         <v>31</v>
       </c>
       <c r="AD61" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE61" t="s">
         <v>87</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
         <v>88</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AG61" t="s">
         <v>89</v>
       </c>
-      <c r="AG61" t="s">
+      <c r="AH61" t="s">
         <v>90</v>
       </c>
-      <c r="AH61" t="s">
+      <c r="AI61" t="s">
         <v>91</v>
       </c>
-      <c r="AI61" t="s">
+      <c r="AJ61" t="s">
         <v>92</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -33802,7 +33598,7 @@
         <v>1.3589932998991494E-2</v>
       </c>
       <c r="AL62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM62">
         <f>COUNT(AD62:AD161)</f>
@@ -33865,7 +33661,7 @@
         <v>3.5899329989914942E-3</v>
       </c>
       <c r="AL63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM63">
         <f>AVERAGE(AD62:AD161)</f>
@@ -33928,7 +33724,7 @@
         <v>6.410067001008506E-3</v>
       </c>
       <c r="AL64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM64">
         <f>_xlfn.STDEV.S(AD62:AD161)</f>
@@ -33991,7 +33787,7 @@
         <v>1.6410067001008506E-2</v>
       </c>
       <c r="AL65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AM65">
         <f>MAX(AJ62:AJ161)</f>
@@ -34110,7 +33906,7 @@
         <v>3.641006700100851E-2</v>
       </c>
       <c r="AL67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM67">
         <f>1.3581/SQRT(AM62)</f>
@@ -39507,23 +39303,23 @@
         <v>60.010200000002001</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="18"/>
       <c r="K3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="18"/>
       <c r="N3" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O3" s="18"/>
       <c r="Q3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R3" s="18"/>
       <c r="T3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U3" s="18"/>
     </row>
@@ -39571,31 +39367,31 @@
         <v>120.020400000004</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="16">
         <v>2.7654759508129994E-2</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="16">
         <v>0.10365527842296998</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5" s="16">
         <v>0.90449402464180051</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="16">
         <v>8.4751969248428782</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U5" s="16">
         <v>88.815110336073758</v>
@@ -39618,31 +39414,31 @@
         <v>30.005100000001001</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="16">
         <v>1.2471441567679907E-3</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="16">
         <v>3.1283518946860363E-3</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="16">
         <v>2.7135102181909121E-2</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R6" s="16">
         <v>0.22752000057372671</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U6" s="16">
         <v>2.2934625577585459</v>
@@ -39665,31 +39461,31 @@
         <v>60.010200000002001</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="16">
         <v>2.5716666675500002E-2</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="16">
         <v>0.10530000000299999</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R7" s="16">
         <v>9.0153000000030001</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U7" s="16">
         <v>90.015300000002995</v>
@@ -39712,31 +39508,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="16">
         <v>2.4300000003000002E-2</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="16">
         <v>0.10530000000299999</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="16">
         <v>0.91530000000300005</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R8" s="16">
         <v>9.0153000000030001</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U8" s="16">
         <v>90.015300000002995</v>
@@ -39806,31 +39602,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="16">
         <v>1.5553685477605426E-4</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="16">
         <v>9.7865855769857122E-4</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="16">
         <v>7.3631377042264926E-2</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R10" s="16">
         <v>5.1765350661068599</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U10" s="16">
         <v>525.99705038403715</v>
@@ -39853,31 +39649,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="16">
         <v>31.0598151951367</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="16">
         <v>0.22012811187686276</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11" s="16">
         <v>8.2575143882666069E-2</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="16">
         <v>-0.18255680268391705</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U11" s="16">
         <v>0.23705058136283474</v>
@@ -39900,31 +39696,31 @@
         <v>60.010200000002001</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="16">
         <v>4.3885933774126427</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="16">
         <v>0.13546334758149359</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="16">
         <v>-0.34940133072128365</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R12" s="16">
         <v>-0.25586275919061979</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U12" s="16">
         <v>6.8021854875333757E-2</v>
@@ -39947,31 +39743,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="16">
         <v>0.112594030915</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="16">
         <v>0.16284260142199999</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="16">
         <v>1.2455994742050001</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R13" s="16">
         <v>9.0235297948879989</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U13" s="16">
         <v>120.020400000004</v>
@@ -39994,31 +39790,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="16">
         <v>8.100000001E-3</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="16">
         <v>3.5100000000999998E-2</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O14" s="16">
         <v>0.30510000000100002</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R14" s="16">
         <v>3.0051000000010002</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U14" s="16">
         <v>30.005100000001001</v>
@@ -40041,31 +39837,31 @@
         <v>120.020400000004</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I15" s="16">
         <v>0.12069403091600001</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="16">
         <v>0.19794260142299999</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O15" s="16">
         <v>1.5506994742060001</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" s="16">
         <v>12.028629794889</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U15" s="16">
         <v>150.025500000005</v>
@@ -40088,31 +39884,31 @@
         <v>120.020400000004</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="16">
         <v>2.7654759508129994</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="16">
         <v>10.365527842296999</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O16" s="16">
         <v>90.449402464180054</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R16" s="16">
         <v>847.51969248428782</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U16" s="16">
         <v>8881.5110336073758</v>
@@ -40135,31 +39931,31 @@
         <v>120.020400000004</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="16">
         <v>100</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L17" s="16">
         <v>100</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O17" s="16">
         <v>100</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R17" s="16">
         <v>100</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U17" s="16">
         <v>100</v>
@@ -40182,31 +39978,31 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="17">
         <v>2.4746045769309943E-3</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L18" s="17">
         <v>6.2073288599635177E-3</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O18" s="17">
         <v>5.3841929732373638E-2</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" s="17">
         <v>0.45144904196333974</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U18" s="17">
         <v>4.5507272849332479</v>
@@ -40303,7 +40099,7 @@
         <v>90.015300000002995</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <f>I18</f>
@@ -41712,7 +41508,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -41793,27 +41589,27 @@
         <v>0.91603333333500003</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="18"/>
       <c r="M4" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" s="18"/>
       <c r="P4" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="18"/>
       <c r="S4" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T4" s="18"/>
       <c r="V4" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="18"/>
       <c r="Y4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="18"/>
     </row>
@@ -41869,37 +41665,37 @@
         <v>0.91655531933400003</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" s="16">
         <v>0.91574297331867116</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="16">
         <v>0.90074036945079006</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="16">
         <v>0.84275304672511908</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T6" s="16">
         <v>0.90029957616536993</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W6" s="16">
         <v>0.86738051792505044</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="16">
         <v>0.88954687804625943</v>
@@ -41925,37 +41721,37 @@
         <v>0.91603333333500003</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="16">
         <v>2.0797385369076635E-2</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="16">
         <v>2.3548452928601492E-2</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="16">
         <v>2.6369962605837065E-2</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T7" s="16">
         <v>2.6868874904729435E-2</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W7" s="16">
         <v>2.4444814223368444E-2</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z7" s="16">
         <v>2.4554749416613952E-2</v>
@@ -41981,37 +41777,37 @@
         <v>0.61068888888999995</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="16">
         <v>0.91500000000299997</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="16">
         <v>0.91510000000199998</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T8" s="16">
         <v>0.91523333333400003</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W8" s="16">
         <v>0.91550000000099996</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="16">
         <v>0.91603333333500003</v>
@@ -42037,37 +41833,37 @@
         <v>0.91758519256000004</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="16">
         <v>0.91500000000299997</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="16">
         <v>0.91510000000199998</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9" s="16">
         <v>0.91523333333400003</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W9" s="16">
         <v>0.91550000000099996</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z9" s="16">
         <v>0.91603333333500003</v>
@@ -42149,37 +41945,37 @@
         <v>0.91638571041799999</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="16">
         <v>4.3253123818988284E-2</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" s="16">
         <v>5.5452963533056017E-2</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="16">
         <v>6.9537492783324509E-2</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T11" s="16">
         <v>7.2193643864599921E-2</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W11" s="16">
         <v>5.9754894241499622E-2</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z11" s="16">
         <v>6.0293571891270319E-2</v>
@@ -42205,37 +42001,37 @@
         <v>0.91603333333500003</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="16">
         <v>0.38308113070838301</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" s="16">
         <v>0.34310097375881332</v>
       </c>
       <c r="P12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="16">
         <v>0.27591714554762525</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T12" s="16">
         <v>0.19343217473959573</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W12" s="16">
         <v>-9.8003112688642702E-2</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="16">
         <v>0.15774914343360402</v>
@@ -42261,37 +42057,37 @@
         <v>1.2213777777799999</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="16">
         <v>-9.2875727455542633E-3</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="16">
         <v>-0.58957728847054736</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="16">
         <v>-0.18149738376009131</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T13" s="16">
         <v>6.450046711238379E-3</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W13" s="16">
         <v>-0.43098220742621396</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="16">
         <v>0.28698310563254098</v>
@@ -42317,37 +42113,37 @@
         <v>0.61068888888999995</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="16">
         <v>1.2200000000039999</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N14" s="16">
         <v>0.94259108117399992</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="16">
         <v>1.2201333333359998</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T14" s="16">
         <v>1.222985577947</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W14" s="16">
         <v>0.91689317025799999</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="16">
         <v>1.2213777777800001</v>
@@ -42373,37 +42169,37 @@
         <v>0.91724537237100001</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N15" s="16">
         <v>0.30501111111200002</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="16">
         <v>0.30503333333400001</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T15" s="16">
         <v>0.30507777777799999</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W15" s="16">
         <v>0.30516666666699999</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z15" s="16">
         <v>0.30534444444499997</v>
@@ -42429,37 +42225,37 @@
         <v>1.2213777777799999</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" s="16">
         <v>1.5250000000049999</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="16">
         <v>1.2476021922859999</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="16">
         <v>1.5251666666699999</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" s="16">
         <v>1.5280633557250001</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W16" s="16">
         <v>1.222059836925</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z16" s="16">
         <v>1.5267222222250001</v>
@@ -42485,37 +42281,37 @@
         <v>1.2213777777799999</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="16">
         <v>91.574297331867115</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" s="16">
         <v>90.074036945079001</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="16">
         <v>84.275304672511908</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" s="16">
         <v>90.02995761653699</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W17" s="16">
         <v>86.738051792505047</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z17" s="16">
         <v>88.954687804625948</v>
@@ -42541,37 +42337,37 @@
         <v>0.61068888888999995</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="16">
         <v>100</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="16">
         <v>100</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="16">
         <v>100</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T18" s="16">
         <v>100</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W18" s="16">
         <v>100</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z18" s="16">
         <v>100</v>
@@ -42597,37 +42393,37 @@
         <v>0.91603333333500003</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="17">
         <v>4.1266524597997178E-2</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N19" s="17">
         <v>4.6725239484565875E-2</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="17">
         <v>5.2323726815201817E-2</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T19" s="17">
         <v>5.3313677056019006E-2</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W19" s="17">
         <v>4.8503814760388411E-2</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z19" s="17">
         <v>4.8721950034402078E-2</v>
@@ -42740,7 +42536,7 @@
         <v>0.61068888888999995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23">
         <f>K19</f>
@@ -44354,8 +44150,8 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
-        <v>110</v>
+      <c r="A108" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="B108" s="5">
         <v>1</v>
@@ -44377,7 +44173,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="43"/>
       <c r="B109">
         <v>1.32</v>
       </c>
@@ -44397,32 +44193,32 @@
         <v>1.6105677323450001</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K109" s="18"/>
       <c r="M109" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N109" s="18"/>
       <c r="P109" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q109" s="18"/>
       <c r="S109" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T109" s="18"/>
       <c r="V109" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W109" s="18"/>
       <c r="Y109" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z109" s="18"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
+      <c r="A110" s="43"/>
       <c r="B110">
         <v>4.9858304269760003</v>
       </c>
@@ -44455,7 +44251,7 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
+      <c r="A111" s="43"/>
       <c r="B111">
         <v>6.3728169473809997</v>
       </c>
@@ -44475,44 +44271,44 @@
         <v>3.3514066961809998</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K111" s="16">
         <v>5.5063240880702509</v>
       </c>
       <c r="M111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N111" s="16">
         <v>6.0840979703459599</v>
       </c>
       <c r="P111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q111" s="16">
         <v>6.0032053638373206</v>
       </c>
       <c r="S111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T111" s="16">
         <v>4.6109293409708796</v>
       </c>
       <c r="V111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W111" s="16">
         <v>5.000540097190469</v>
       </c>
       <c r="Y111" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z111" s="16">
         <v>4.6533698808326696</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+      <c r="A112" s="43"/>
       <c r="B112">
         <v>9.3210768256519998</v>
       </c>
@@ -44532,37 +44328,37 @@
         <v>2.6048</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K112" s="16">
         <v>0.41663313624011888</v>
       </c>
       <c r="M112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N112" s="16">
         <v>0.46929692478615675</v>
       </c>
       <c r="P112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q112" s="16">
         <v>0.49928149350353923</v>
       </c>
       <c r="S112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T112" s="16">
         <v>0.34978722194927936</v>
       </c>
       <c r="V112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W112" s="16">
         <v>0.34458590592393401</v>
       </c>
       <c r="Y112" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z112" s="16">
         <v>0.37038726864270732</v>
@@ -44588,37 +44384,37 @@
         <v>8.9202881127640001</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K113" s="16">
         <v>4.6852499907415002</v>
       </c>
       <c r="M113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N113" s="16">
         <v>4.9785773755165001</v>
       </c>
       <c r="P113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q113" s="16">
         <v>4.6896878583625004</v>
       </c>
       <c r="S113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T113" s="16">
         <v>3.8669145686580002</v>
       </c>
       <c r="V113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W113" s="16">
         <v>3.8315547127620002</v>
       </c>
       <c r="Y113" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z113" s="16">
         <v>3.4684029959834999</v>
@@ -44644,37 +44440,37 @@
         <v>7.7433775497820001</v>
       </c>
       <c r="J114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K114" s="16">
         <v>1.32</v>
       </c>
       <c r="M114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N114" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="P114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q114" s="16" t="e">
         <v>#N/A</v>
       </c>
       <c r="S114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T114" s="16">
         <v>1.9967999999999999</v>
       </c>
       <c r="V114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W114" s="16">
         <v>0.67200000000000004</v>
       </c>
       <c r="Y114" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z114" s="16">
         <v>1.3695999999999999</v>
@@ -44756,37 +44552,37 @@
         <v>2.3014952578800001</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K116" s="16">
         <v>17.358317021327746</v>
       </c>
       <c r="M116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N116" s="16">
         <v>22.023960361374364</v>
       </c>
       <c r="P116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q116" s="16">
         <v>24.928200975512468</v>
       </c>
       <c r="S116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T116" s="16">
         <v>12.235110063899439</v>
       </c>
       <c r="V116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W116" s="16">
         <v>11.87394465614183</v>
       </c>
       <c r="Y116" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z116" s="16">
         <v>13.718672877260502</v>
@@ -44812,37 +44608,37 @@
         <v>4.4691999999999998</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K117" s="16">
         <v>5.8491924943828444</v>
       </c>
       <c r="M117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N117" s="16">
         <v>2.7020305783768106</v>
       </c>
       <c r="P117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q117" s="16">
         <v>4.3536860338274916</v>
       </c>
       <c r="S117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T117" s="16">
         <v>9.492200530535861</v>
       </c>
       <c r="V117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W117" s="16">
         <v>1.6492275397589942</v>
       </c>
       <c r="Y117" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z117" s="16">
         <v>5.4509568821735872</v>
@@ -44868,37 +44664,37 @@
         <v>5.6507043805350001</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K118" s="16">
         <v>1.9475876959810889</v>
       </c>
       <c r="M118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N118" s="16">
         <v>1.6428920082360827</v>
       </c>
       <c r="P118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q118" s="16">
         <v>1.9989245872276988</v>
       </c>
       <c r="S118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T118" s="16">
         <v>2.550946306109215</v>
       </c>
       <c r="V118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W118" s="16">
         <v>1.284383987831204</v>
       </c>
       <c r="Y118" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z118" s="16">
         <v>1.9077801881445478</v>
@@ -44924,37 +44720,37 @@
         <v>0.945015343206</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K119" s="16">
         <v>25.106048399683999</v>
       </c>
       <c r="M119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N119" s="16">
         <v>21.295837435081999</v>
       </c>
       <c r="P119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q119" s="16">
         <v>26.747768765387999</v>
       </c>
       <c r="S119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T119" s="16">
         <v>22.858395109047002</v>
       </c>
       <c r="V119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W119" s="16">
         <v>16.344194763632999</v>
       </c>
       <c r="Y119" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z119" s="16">
         <v>22.374759155123002</v>
@@ -44980,37 +44776,37 @@
         <v>10.613160139652001</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K120" s="16">
         <v>0.66</v>
       </c>
       <c r="M120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N120" s="16">
         <v>0.77452569173300001</v>
       </c>
       <c r="P120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q120" s="16">
         <v>0.70619714721899995</v>
       </c>
       <c r="S120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T120" s="16">
         <v>0.84612346642299996</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W120" s="16">
         <v>0.67200000000000004</v>
       </c>
       <c r="Y120" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z120" s="16">
         <v>0.68479999999999996</v>
@@ -45036,37 +44832,37 @@
         <v>2.4354182640749999</v>
       </c>
       <c r="J121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K121" s="16">
         <v>25.766048399683999</v>
       </c>
       <c r="M121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N121" s="16">
         <v>22.070363126815</v>
       </c>
       <c r="P121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q121" s="16">
         <v>27.453965912607</v>
       </c>
       <c r="S121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T121" s="16">
         <v>23.704518575470001</v>
       </c>
       <c r="V121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W121" s="16">
         <v>17.016194763632999</v>
       </c>
       <c r="Y121" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z121" s="16">
         <v>23.059559155123001</v>
@@ -45092,37 +44888,37 @@
         <v>12.378754543814001</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K122" s="16">
         <v>550.63240880702506</v>
       </c>
       <c r="M122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N122" s="16">
         <v>608.40979703459595</v>
       </c>
       <c r="P122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q122" s="16">
         <v>600.32053638373202</v>
       </c>
       <c r="S122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T122" s="16">
         <v>461.09293409708795</v>
       </c>
       <c r="V122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W122" s="16">
         <v>500.05400971904686</v>
       </c>
       <c r="Y122" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z122" s="16">
         <v>465.33698808326699</v>
@@ -45148,37 +44944,37 @@
         <v>1.5412254099730001</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K123" s="16">
         <v>100</v>
       </c>
       <c r="M123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N123" s="16">
         <v>100</v>
       </c>
       <c r="P123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q123" s="16">
         <v>100</v>
       </c>
       <c r="S123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T123" s="16">
         <v>100</v>
       </c>
       <c r="V123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W123" s="16">
         <v>100</v>
       </c>
       <c r="Y123" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z123" s="16">
         <v>100</v>
@@ -45204,37 +45000,37 @@
         <v>3.0915057995690001</v>
       </c>
       <c r="J124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K124" s="17">
         <v>0.82669053152025684</v>
       </c>
       <c r="M124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N124" s="17">
         <v>0.93118691348806781</v>
       </c>
       <c r="P124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q124" s="17">
         <v>0.99068280302310585</v>
       </c>
       <c r="S124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T124" s="17">
         <v>0.6940537352400804</v>
       </c>
       <c r="V124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W124" s="17">
         <v>0.68373319581203207</v>
       </c>
       <c r="Y124" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z124" s="17">
         <v>0.73492869709265185</v>
@@ -45347,7 +45143,7 @@
         <v>1.5895999999999999</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K128">
         <f>K124</f>
@@ -47027,7 +46823,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -47079,23 +46875,23 @@
         <v>0.61002222222400004</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="18"/>
       <c r="L3" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" s="18"/>
       <c r="O3" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="18"/>
       <c r="R3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" s="18"/>
       <c r="U3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V3" s="18"/>
     </row>
@@ -47143,31 +46939,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="16">
         <v>0.86441294720018025</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="16">
         <v>0.91972956348449042</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P5" s="16">
         <v>0.94591291899241059</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S5" s="16">
         <v>0.89673388227925055</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V5" s="16">
         <v>0.9119832222248806</v>
@@ -47190,31 +46986,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="16">
         <v>2.3882412940164906E-2</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6" s="16">
         <v>2.5222936990860211E-2</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="16">
         <v>2.3545157287658654E-2</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S6" s="16">
         <v>2.4067576178354221E-2</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V6" s="16">
         <v>2.4712764554024602E-2</v>
@@ -47237,31 +47033,31 @@
         <v>1.2200444444480001</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S7" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V7" s="16">
         <v>0.91503333333600001</v>
@@ -47284,31 +47080,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S8" s="16">
         <v>0.91503333333600001</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8" s="16">
         <v>0.91503333333600001</v>
@@ -47378,31 +47174,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="16">
         <v>5.7036964784455621E-2</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M10" s="16">
         <v>6.361965504449045E-2</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="16">
         <v>5.5437443170058547E-2</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S10" s="16">
         <v>5.7924822310088366E-2</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V10" s="16">
         <v>6.1072073190265481E-2</v>
@@ -47425,31 +47221,31 @@
         <v>1.2200444444480001</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="16">
         <v>0.53159568395877077</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="16">
         <v>-0.41462062055324811</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P11" s="16">
         <v>-0.1300213960497234</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S11" s="16">
         <v>-0.21020432052284477</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V11" s="16">
         <v>1.9206503818258724E-3</v>
@@ -47472,31 +47268,31 @@
         <v>1.2200444444480001</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="16">
         <v>-0.32818788954863826</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="16">
         <v>-1.6859141044575279E-2</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="16">
         <v>-0.31347169584070739</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S12" s="16">
         <v>-0.39614144330025841</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V12" s="16">
         <v>-0.33040848667311717</v>
@@ -47519,31 +47315,31 @@
         <v>1.2200444444480001</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="16">
         <v>1.2207893953590001</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="16">
         <v>1.2205800604770001</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="16">
         <v>1.2200444444480001</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S13" s="16">
         <v>0.91515489433300012</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V13" s="16">
         <v>1.2200444444480001</v>
@@ -47566,31 +47362,31 @@
         <v>0.30501111111200002</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="16">
         <v>0.30501111111200002</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="16">
         <v>0.30501111111200002</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P14" s="16">
         <v>0.30501111111200002</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S14" s="16">
         <v>0.30501111111200002</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V14" s="16">
         <v>0.30501111111200002</v>
@@ -47613,31 +47409,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J15" s="16">
         <v>1.5258005064710001</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" s="16">
         <v>1.525591171589</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P15" s="16">
         <v>1.5250555555600001</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S15" s="16">
         <v>1.2201660054450001</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V15" s="16">
         <v>1.5250555555600001</v>
@@ -47660,31 +47456,31 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="16">
         <v>86.441294720018021</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M16" s="16">
         <v>91.972956348449046</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P16" s="16">
         <v>94.591291899241057</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S16" s="16">
         <v>89.673388227925059</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V16" s="16">
         <v>91.198322222488059</v>
@@ -47707,31 +47503,31 @@
         <v>0.61002222222400004</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="16">
         <v>100</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="16">
         <v>100</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="16">
         <v>100</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S17" s="16">
         <v>100</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V17" s="16">
         <v>100</v>
@@ -47754,31 +47550,31 @@
         <v>1.2200444444480001</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="17">
         <v>4.7387888600661995E-2</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M18" s="17">
         <v>5.0047779146060907E-2</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="17">
         <v>4.6718700217940758E-2</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S18" s="17">
         <v>4.7755292636687867E-2</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V18" s="17">
         <v>4.9035486348659542E-2</v>
@@ -47875,7 +47671,7 @@
         <v>0.91503333333600001</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22">
         <f>J18</f>
@@ -49290,7 +49086,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5">
         <v>1</v>
@@ -49377,23 +49173,23 @@
         <v>15.656666666717999</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="18"/>
       <c r="L5" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5" s="18"/>
       <c r="O5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S5" s="18"/>
       <c r="U5" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V5" s="18"/>
     </row>
@@ -49435,31 +49231,31 @@
         <v>5.3733333333919999</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="16">
         <v>0.39059678193986036</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="16">
         <v>0.70968916166425022</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S7" s="16">
         <v>1.2735574783240902</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V7" s="16">
         <v>12.234124610118215</v>
@@ -49479,31 +49275,31 @@
         <v>25.315000000083</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="16">
         <v>0</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="16">
         <v>4.0421909092859731E-3</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="16">
         <v>1.2715798215470387E-2</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S8" s="16">
         <v>3.1215472133397308E-2</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V8" s="16">
         <v>0.76247482107208531</v>
@@ -49523,31 +49319,31 @@
         <v>2.9483333333430002</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="16">
         <v>0.40666666667000001</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="16">
         <v>0.71166666666900003</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="16">
         <v>1.2221589255579999</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V9" s="16">
         <v>11.132500000036501</v>
@@ -49567,31 +49363,31 @@
         <v>23.180000000075999</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="16">
         <v>0.40666666667000001</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="16">
         <v>0.71166666666900003</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S10" s="16">
         <v>1.0166666666699999</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V10" s="16">
         <v>13.521666666711001</v>
@@ -49655,31 +49451,31 @@
         <v>10.573333333368</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="16">
         <v>0</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M12" s="16">
         <v>1.4215197391989323E-3</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="16">
         <v>1.6169152425655985E-2</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S12" s="16">
         <v>9.7440570051090414E-2</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V12" s="16">
         <v>58.136785276890862</v>
@@ -49699,31 +49495,31 @@
         <v>16.876666666721999</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="16" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="16">
         <v>1.5397884364271444</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P13" s="16">
         <v>-0.16880954737971487</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S13" s="16">
         <v>-0.26993667918979591</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V13" s="16">
         <v>-1.177666198334109</v>
@@ -49743,31 +49539,31 @@
         <v>0.71166666666900003</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="16" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="16">
         <v>-1.8678461520873109</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="16">
         <v>-0.22888033972378199</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S14" s="16">
         <v>0.16410983342915833</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V14" s="16">
         <v>0.18574374450620518</v>
@@ -49787,31 +49583,31 @@
         <v>9.7600000000320009</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="16">
         <v>0.106258584494</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="16">
         <v>0.61833333333299989</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15" s="16">
         <v>1.5258863017789999</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V15" s="16">
         <v>25.111666666748999</v>
@@ -49831,31 +49627,31 @@
         <v>2.135000000007</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M16" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P16" s="16">
         <v>0.398333333337</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S16" s="16">
         <v>0.50833333333499997</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V16" s="16">
         <v>0.30500000000100003</v>
@@ -49875,31 +49671,31 @@
         <v>22.875755746039999</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J17" s="16">
         <v>0.30500000000100003</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17" s="16">
         <v>0.41125858449500002</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="16">
         <v>1.0166666666699999</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S17" s="16">
         <v>2.0342196351139998</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V17" s="16">
         <v>25.41666666675</v>
@@ -49919,31 +49715,31 @@
         <v>4.2700000000139999</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J18" s="16">
         <v>0.91500000000300008</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="16">
         <v>33.981920028767853</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P18" s="16">
         <v>70.968916166425018</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S18" s="16">
         <v>127.35574783240901</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V18" s="16">
         <v>1223.4124610118215</v>
@@ -49963,31 +49759,31 @@
         <v>1.4233333333380001</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="16">
         <v>3</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="16">
         <v>87</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P19" s="16">
         <v>100</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S19" s="16">
         <v>100</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V19" s="16">
         <v>100</v>
@@ -50007,31 +49803,31 @@
         <v>13.521666666711001</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="17">
         <v>0</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="17">
         <v>8.035609576717985E-3</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="17">
         <v>2.5230902372088648E-2</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S20" s="17">
         <v>6.1938268958860343E-2</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V20" s="17">
         <v>1.5129154651290515</v>
@@ -50130,7 +49926,7 @@
         <v>17.181666666723</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25">
         <f>J20</f>

--- a/Data Collection Sim 0.xlsx
+++ b/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB597327-A529-4813-9EEF-48287FCF36AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE3148B-1D26-4535-B148-7DB69C8C4AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22608" yWindow="324" windowWidth="21600" windowHeight="11388" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="111">
   <si>
     <t>Evil Node Sleeping Transactions</t>
   </si>
@@ -740,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,10 +754,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,7 +765,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="60% - Accent1" xfId="11" builtinId="32"/>
@@ -894,19 +894,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>8.6457818286992824E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10990855550168863</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6036028556171878E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3177849229914702E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.21854593017003399</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -918,19 +918,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>8.6457818286992824E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.10990855550168863</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.6036028556171878E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3177849229914702E-2</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.21854593017003399</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -955,6 +955,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.406666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50833333333499997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61000000000200005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.828033901848002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.866405287816001</c:v>
+                </c:pt>
                 <c:pt idx="5">
                   <c:v>115.854555972505</c:v>
                 </c:pt>
@@ -19644,9 +19659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4891D42F-3971-43B5-986A-C0853C8465A0}">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19721,7 +19736,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4">
@@ -19743,7 +19758,7 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
@@ -19765,7 +19780,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -19785,7 +19800,7 @@
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
@@ -19807,7 +19822,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4">
         <v>3</v>
       </c>
@@ -19827,7 +19842,7 @@
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>100</v>
@@ -19853,7 +19868,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="4">
         <v>4</v>
       </c>
@@ -19873,7 +19888,7 @@
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
@@ -19896,7 +19911,7 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="4">
         <v>5</v>
       </c>
@@ -19917,7 +19932,7 @@
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6" s="35">
         <v>100</v>
@@ -19942,7 +19957,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="4">
         <v>6</v>
       </c>
@@ -19963,7 +19978,7 @@
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -19988,7 +20003,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4">
         <v>7</v>
       </c>
@@ -20031,7 +20046,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="5">
@@ -20078,7 +20093,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -20123,7 +20138,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="5">
         <v>3</v>
       </c>
@@ -20168,7 +20183,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="5">
         <v>4</v>
       </c>
@@ -20211,7 +20226,7 @@
       <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6">
@@ -20255,7 +20270,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="6">
         <v>2</v>
       </c>
@@ -20297,7 +20312,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="6">
         <v>3</v>
       </c>
@@ -20339,7 +20354,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="6">
         <v>4</v>
       </c>
@@ -20381,7 +20396,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="6">
         <v>5</v>
       </c>
@@ -20423,7 +20438,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="6">
         <v>6</v>
       </c>
@@ -20510,7 +20525,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="20">
@@ -20557,7 +20572,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="20">
         <v>2</v>
       </c>
@@ -20602,7 +20617,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="10">
@@ -20646,7 +20661,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="11">
         <v>2</v>
       </c>
@@ -20688,7 +20703,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="10">
         <v>3</v>
       </c>
@@ -20730,7 +20745,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="11">
         <v>4</v>
       </c>
@@ -20772,7 +20787,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="10">
         <v>5</v>
       </c>
@@ -20814,7 +20829,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="12">
@@ -20861,7 +20876,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="12">
         <v>2</v>
       </c>
@@ -20903,7 +20918,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="12">
         <v>3</v>
       </c>
@@ -20945,7 +20960,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="12">
         <v>4</v>
       </c>
@@ -20987,7 +21002,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="12">
         <v>5</v>
       </c>
@@ -21029,7 +21044,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="12">
         <v>6</v>
       </c>
@@ -21071,7 +21086,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="14">
@@ -21115,7 +21130,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="14">
         <v>2</v>
       </c>
@@ -21157,7 +21172,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="14">
         <v>3</v>
       </c>
@@ -21199,7 +21214,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="14">
         <v>4</v>
       </c>
@@ -21241,7 +21256,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="14">
         <v>5</v>
       </c>
@@ -21283,7 +21298,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B38" s="23">
@@ -21324,7 +21339,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="23">
         <v>2</v>
       </c>
@@ -21363,7 +21378,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="23">
         <v>3</v>
       </c>
@@ -21402,7 +21417,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="23">
         <v>4</v>
       </c>
@@ -21441,7 +21456,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="23">
         <v>5</v>
       </c>
@@ -21480,7 +21495,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="37" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="27">
@@ -21524,7 +21539,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="27">
         <v>2</v>
       </c>
@@ -21566,7 +21581,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="27">
         <v>3</v>
       </c>
@@ -21608,7 +21623,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="27">
         <v>4</v>
       </c>
@@ -21650,7 +21665,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="27">
         <v>5</v>
       </c>
@@ -21692,7 +21707,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="27">
         <v>6</v>
       </c>
@@ -21770,8 +21785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21807,36 +21822,71 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C2">
+        <v>18.630216736592001</v>
+      </c>
+      <c r="D2">
+        <v>35.646030341458001</v>
+      </c>
+      <c r="E2">
+        <v>2.017634968416</v>
+      </c>
+      <c r="F2">
+        <v>53.234294590434999</v>
+      </c>
       <c r="G2">
         <v>75.482852674233996</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6.2723094744900001</v>
+      </c>
+      <c r="C3">
+        <v>58.191610608266998</v>
+      </c>
+      <c r="D3">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E3">
+        <v>38.851899188891998</v>
+      </c>
+      <c r="F3">
+        <v>49.409732583093998</v>
+      </c>
       <c r="G3">
         <v>108.358154340563</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="N3" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="Q3" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="T3" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="W3" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="W3" s="18"/>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10.022588624299001</v>
+      </c>
+      <c r="C4">
+        <v>9.7453150162059998</v>
+      </c>
+      <c r="D4">
+        <v>45.886422461709998</v>
+      </c>
+      <c r="E4">
+        <v>32.189801913821</v>
+      </c>
+      <c r="F4">
+        <v>105.613371723786</v>
+      </c>
       <c r="G4">
         <v>182.33288944551299</v>
       </c>
@@ -21852,511 +21902,501 @@
       <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>6.1711102002729996</v>
+      </c>
+      <c r="C5">
+        <v>10.006929993511999</v>
+      </c>
+      <c r="D5">
+        <v>25.775478090671001</v>
+      </c>
+      <c r="E5">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F5">
+        <v>90.443172394396001</v>
+      </c>
       <c r="G5">
         <v>134.826828606639</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0.65907088731205998</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0.96447097937686022</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0.89090111111418024</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0.91610186017854023</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5" s="16">
-        <v>1.0695115236070001</v>
-      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C6">
+        <v>0.813333333336</v>
+      </c>
+      <c r="D6">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E6">
+        <v>86.678416396144002</v>
+      </c>
+      <c r="F6">
+        <v>53.351097299393999</v>
+      </c>
       <c r="G6">
         <v>215.759151188153</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="16">
-        <v>4.3022931756713616E-2</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="16">
-        <v>5.4692431251639792E-2</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="16">
-        <v>3.7836865796969356E-2</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="16">
-        <v>3.643300751720354E-2</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="16">
-        <v>8.5018079230275018E-2</v>
-      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C7">
+        <v>28.219820264641001</v>
+      </c>
+      <c r="D7">
+        <v>14.743895338495999</v>
+      </c>
+      <c r="E7">
+        <v>5.1432438142769996</v>
+      </c>
+      <c r="F7">
+        <v>140.19251694441201</v>
+      </c>
       <c r="G7">
         <v>201.88244572619999</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0.97033335269749998</v>
-      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C8">
+        <v>15.686468596215001</v>
+      </c>
+      <c r="D8">
+        <v>10.220385744445</v>
+      </c>
+      <c r="E8">
+        <v>99.902198446400007</v>
+      </c>
+      <c r="F8">
+        <v>208.08815480700699</v>
+      </c>
       <c r="G8">
         <v>115.660653538319</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.61020000000200003</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X8" s="16" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>16.178163874385</v>
+      </c>
+      <c r="C9">
+        <v>16.849180423155001</v>
+      </c>
+      <c r="D9">
+        <v>40.528470843210997</v>
+      </c>
+      <c r="E9">
+        <v>14.95461860432</v>
+      </c>
+      <c r="F9">
+        <v>145.55117584944199</v>
+      </c>
       <c r="G9">
         <v>116.45964582443101</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0.30421806791698264</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0.38673389017613552</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0.26754704383882377</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0.26018371562067272</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0.20825091302568619</v>
-      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.3075806218050001</v>
+      </c>
+      <c r="C10">
+        <v>28.803743387714</v>
+      </c>
+      <c r="D10">
+        <v>5.2213901449779998</v>
+      </c>
+      <c r="E10">
+        <v>12.322482975243</v>
+      </c>
+      <c r="F10">
+        <v>66.449024054437004</v>
+      </c>
       <c r="G10">
         <v>214.338102300846</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="16">
-        <v>9.2548632847141848E-2</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.14956310181076726</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="16">
-        <v>7.1581420666893478E-2</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="16">
-        <v>6.7695565874179089E-2</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" s="16">
-        <v>4.3368442776031912E-2</v>
-      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C11">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D11">
+        <v>53.517206987061002</v>
+      </c>
+      <c r="E11">
+        <v>135.08107512120699</v>
+      </c>
+      <c r="F11">
+        <v>389.40241348158298</v>
+      </c>
       <c r="G11">
         <v>95.323242813232</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="16">
-        <v>-0.82635308083923675</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="16">
-        <v>-0.39915931653301362</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="R11" s="16">
-        <v>-0.5239911534935402</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="U11" s="16">
-        <v>1.0288759383420598</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0.33027136427514669</v>
-      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.790981020289</v>
+      </c>
+      <c r="C12">
+        <v>42.431284081633997</v>
+      </c>
+      <c r="D12">
+        <v>15.308534080801</v>
+      </c>
+      <c r="E12">
+        <v>34.234056610229999</v>
+      </c>
+      <c r="F12">
+        <v>76.264945388626003</v>
+      </c>
       <c r="G12">
         <v>163.43124597162</v>
       </c>
-      <c r="K12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="16">
-        <v>0.43711523073040359</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0.31095602990822668</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R12" s="16">
-        <v>-0.40775931790969783</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" s="16">
-        <v>-0.17512408574241317</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="X12" s="16">
-        <v>1.2772222108687623</v>
-      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11.852762693120001</v>
+      </c>
+      <c r="C13">
+        <v>5.1967217058240003</v>
+      </c>
+      <c r="D13">
+        <v>30.240461067243</v>
+      </c>
+      <c r="E13">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F13">
+        <v>73.267128382492004</v>
+      </c>
       <c r="G13">
         <v>117.562326673806</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="O13" s="16">
-        <v>1.5255000000050001</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0.91530000000300005</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="U13" s="16">
-        <v>1.2455994742050001</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0.50855585887099997</v>
-      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C14">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D14">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E14">
+        <v>93.239786180021994</v>
+      </c>
+      <c r="F14">
+        <v>151.64626054038399</v>
+      </c>
       <c r="G14">
         <v>435.54856523996898</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="U14" s="16">
-        <v>0.30510000000100002</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="X14" s="16">
-        <v>0.91530000000300005</v>
-      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C15">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D15">
+        <v>50.762691352498003</v>
+      </c>
+      <c r="E15">
+        <v>88.032491808649993</v>
+      </c>
+      <c r="F15">
+        <v>61.565601037690001</v>
+      </c>
       <c r="G15">
         <v>46.524248721147998</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="16">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="16">
-        <v>1.8306000000060001</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="16">
-        <v>1.2204000000040001</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="U15" s="16">
-        <v>1.5506994742060001</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="X15" s="16">
-        <v>1.423855858874</v>
-      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C16">
+        <v>20.341581331705001</v>
+      </c>
+      <c r="D16">
+        <v>2.3616569438770001</v>
+      </c>
+      <c r="E16">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F16">
+        <v>160.53775245733601</v>
+      </c>
       <c r="G16">
         <v>588.61394135668604</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="16">
-        <v>32.953544365603001</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="16">
-        <v>48.223548968843012</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R16" s="16">
-        <v>44.545055555709013</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="U16" s="16">
-        <v>46.721194869105553</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="X16" s="16">
-        <v>6.417069141642</v>
-      </c>
-    </row>
-    <row r="17" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6.7155947364059996</v>
+      </c>
+      <c r="C17">
+        <v>9.9173101424630001</v>
+      </c>
+      <c r="D17">
+        <v>23.807568475250999</v>
+      </c>
+      <c r="E17">
+        <v>0.406666666668</v>
+      </c>
+      <c r="F17">
+        <v>76.005560091909004</v>
+      </c>
       <c r="G17">
         <v>86.702755354393005</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="16">
-        <v>50</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O17" s="16">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" s="16">
-        <v>50</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" s="16">
-        <v>51</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="7:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C18">
+        <v>15.776328544798</v>
+      </c>
+      <c r="D18">
+        <v>8.7768883371289999</v>
+      </c>
+      <c r="E18">
+        <v>0.406666666668</v>
+      </c>
+      <c r="F18">
+        <v>56.813917909552998</v>
+      </c>
       <c r="G18">
         <v>371.494373231042</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="17">
-        <v>8.6457818286992824E-2</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0.10990855550168863</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" s="17">
-        <v>7.6036028556171878E-2</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U18" s="17">
-        <v>7.3177849229914702E-2</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="X18" s="17">
-        <v>0.21854593017003399</v>
-      </c>
-    </row>
-    <row r="19" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C19">
+        <v>7.7012001663670002</v>
+      </c>
+      <c r="D19">
+        <v>25.970025448255999</v>
+      </c>
+      <c r="E19">
+        <v>55.385629338127998</v>
+      </c>
+      <c r="F19">
+        <v>7.4971940956639997</v>
+      </c>
       <c r="G19">
         <v>53.380889609467999</v>
       </c>
     </row>
-    <row r="20" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15.813796946996</v>
+      </c>
+      <c r="C20">
+        <v>21.572917702659002</v>
+      </c>
+      <c r="D20">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E20">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="F20">
+        <v>14.219324660766</v>
+      </c>
       <c r="G20">
         <v>441.640206569876</v>
       </c>
     </row>
-    <row r="21" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C21">
+        <v>10.524888052398</v>
+      </c>
+      <c r="D21">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E21">
+        <v>60.784065727992001</v>
+      </c>
+      <c r="F21">
+        <v>43.725170471479998</v>
+      </c>
       <c r="G21">
         <v>147.34377417589499</v>
       </c>
     </row>
-    <row r="22" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>13.149058738736001</v>
+      </c>
+      <c r="C22">
+        <v>13.348530938972999</v>
+      </c>
+      <c r="D22">
+        <v>51.855878885644998</v>
+      </c>
+      <c r="E22">
+        <v>14.612284331521</v>
+      </c>
+      <c r="F22">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="G22">
         <v>64.966739072569993</v>
       </c>
@@ -22365,26 +22405,41 @@
       </c>
       <c r="L22">
         <f>L5</f>
-        <v>0.65907088731205998</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f>O5</f>
-        <v>0.96447097937686022</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f>R5</f>
-        <v>0.89090111111418024</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <f>U5</f>
-        <v>0.91610186017854023</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <f>X5</f>
-        <v>1.0695115236070001</v>
-      </c>
-    </row>
-    <row r="23" spans="7:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C23">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D23">
+        <v>46.226278601761997</v>
+      </c>
+      <c r="E23">
+        <v>55.035831453221</v>
+      </c>
+      <c r="F23">
+        <v>179.57046674866399</v>
+      </c>
       <c r="G23">
         <v>262.57309033228199</v>
       </c>
@@ -22393,106 +22448,361 @@
       </c>
       <c r="L23">
         <f>L18</f>
-        <v>8.6457818286992824E-2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f>O18</f>
-        <v>0.10990855550168863</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <f>R18</f>
-        <v>7.6036028556171878E-2</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <f>U18</f>
-        <v>7.3177849229914702E-2</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <f>X18</f>
-        <v>0.21854593017003399</v>
-      </c>
-    </row>
-    <row r="24" spans="7:24" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C24">
+        <v>3.0773594512739999</v>
+      </c>
+      <c r="D24">
+        <v>80.334750690036998</v>
+      </c>
+      <c r="E24">
+        <v>104.966962879142</v>
+      </c>
+      <c r="F24">
+        <v>54.839811899147001</v>
+      </c>
       <c r="G24">
         <v>260.701079649885</v>
       </c>
     </row>
-    <row r="25" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>13.628518918738999</v>
+      </c>
+      <c r="C25">
+        <v>0.813333333336</v>
+      </c>
+      <c r="D25">
+        <v>12.960339769165</v>
+      </c>
+      <c r="E25">
+        <v>14.050312684707</v>
+      </c>
+      <c r="F25">
+        <v>158.66350859622801</v>
+      </c>
       <c r="G25">
         <v>120.64841159722501</v>
       </c>
     </row>
-    <row r="26" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C26">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D26">
+        <v>8.5650022037079996</v>
+      </c>
+      <c r="E26">
+        <v>49.402259132040001</v>
+      </c>
+      <c r="F26">
+        <v>110.45840160613101</v>
+      </c>
       <c r="G26">
         <v>164.653638178172</v>
       </c>
     </row>
-    <row r="27" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C27">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="D27">
+        <v>3.7794625148900001</v>
+      </c>
+      <c r="E27">
+        <v>0.85086366647800005</v>
+      </c>
+      <c r="F27">
+        <v>337.01645515801698</v>
+      </c>
       <c r="G27">
         <v>115.59407029974</v>
       </c>
     </row>
-    <row r="28" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C28">
+        <v>1.8958130776990001</v>
+      </c>
+      <c r="D28">
+        <v>10.143536666481999</v>
+      </c>
+      <c r="E28">
+        <v>78.551389718409993</v>
+      </c>
+      <c r="F28">
+        <v>226.35979097149399</v>
+      </c>
       <c r="G28">
         <v>77.676793094409007</v>
       </c>
     </row>
-    <row r="29" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C29">
+        <v>13.750286921562999</v>
+      </c>
+      <c r="D29">
+        <v>107.76835999182801</v>
+      </c>
+      <c r="E29">
+        <v>47.080276112619998</v>
+      </c>
+      <c r="F29">
+        <v>231.37397312938299</v>
+      </c>
       <c r="G29">
         <v>282.365223872554</v>
       </c>
     </row>
-    <row r="30" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C30">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D30">
+        <v>64.501893789644001</v>
+      </c>
+      <c r="E30">
+        <v>10.356834578100001</v>
+      </c>
+      <c r="F30">
+        <v>308.637935324907</v>
+      </c>
       <c r="G30">
         <v>134.894126575325</v>
       </c>
     </row>
-    <row r="31" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C31">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D31">
+        <v>8.0230139579860005</v>
+      </c>
+      <c r="E31">
+        <v>70.493163274188007</v>
+      </c>
+      <c r="F31">
+        <v>223.359500721579</v>
+      </c>
       <c r="G31">
         <v>126.128342579772</v>
       </c>
     </row>
-    <row r="32" spans="7:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>12.566321005895</v>
+      </c>
+      <c r="C32">
+        <v>9.3917785379200005</v>
+      </c>
+      <c r="D32">
+        <v>34.661248041557002</v>
+      </c>
+      <c r="E32">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F32">
+        <v>122.29022536406301</v>
+      </c>
       <c r="G32">
         <v>190.97008897622601</v>
       </c>
     </row>
-    <row r="33" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C33">
+        <v>3.9777059603780001</v>
+      </c>
+      <c r="D33">
+        <v>12.312182290934</v>
+      </c>
+      <c r="E33">
+        <v>91.141451755036996</v>
+      </c>
+      <c r="F33">
+        <v>182.08811610357799</v>
+      </c>
       <c r="G33">
         <v>204.982459897572</v>
       </c>
     </row>
-    <row r="34" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C34">
+        <v>0.80131862141200005</v>
+      </c>
+      <c r="D34">
+        <v>47.672577787601</v>
+      </c>
+      <c r="E34">
+        <v>68.391172737231997</v>
+      </c>
+      <c r="F34">
+        <v>5.6670126139699999</v>
+      </c>
       <c r="G34">
         <v>411.15462886416498</v>
       </c>
     </row>
-    <row r="35" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C35">
+        <v>20.240164638707</v>
+      </c>
+      <c r="D35">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E35">
+        <v>29.443943973707</v>
+      </c>
+      <c r="F35">
+        <v>48.434060473237999</v>
+      </c>
       <c r="G35">
         <v>22.688487693548002</v>
       </c>
     </row>
-    <row r="36" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C36">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D36">
+        <v>31.903574607446998</v>
+      </c>
+      <c r="E36">
+        <v>29.058959529380001</v>
+      </c>
+      <c r="F36">
+        <v>259.65207564902602</v>
+      </c>
       <c r="G36">
         <v>295.39638831480602</v>
       </c>
     </row>
-    <row r="37" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>3.417796444226</v>
+      </c>
+      <c r="C37">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D37">
+        <v>14.064698701208</v>
+      </c>
+      <c r="E37">
+        <v>22.927914661347</v>
+      </c>
+      <c r="F37">
+        <v>27.077655481322001</v>
+      </c>
       <c r="G37">
         <v>196.269730307527</v>
       </c>
     </row>
-    <row r="38" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C38">
+        <v>1.642784973256</v>
+      </c>
+      <c r="D38">
+        <v>1.1402242782959999</v>
+      </c>
+      <c r="E38">
+        <v>98.133645956587998</v>
+      </c>
+      <c r="F38">
+        <v>169.327713796251</v>
+      </c>
       <c r="G38">
         <v>67.683320258291005</v>
       </c>
     </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C39">
+        <v>11.217654902465</v>
+      </c>
+      <c r="D39">
+        <v>41.276105001452002</v>
+      </c>
+      <c r="E39">
+        <v>27.486369322375001</v>
+      </c>
+      <c r="F39">
+        <v>232.437417917342</v>
+      </c>
       <c r="G39">
         <v>481.74514624923103</v>
       </c>
     </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D40">
+        <v>12.396113908497</v>
+      </c>
+      <c r="E40">
+        <v>66.704918341953004</v>
+      </c>
+      <c r="F40">
+        <v>207.945435994154</v>
+      </c>
       <c r="G40">
         <v>207.027740624659</v>
       </c>
@@ -22506,27 +22816,57 @@
       <c r="O40" s="41"/>
       <c r="P40" s="41"/>
     </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C41">
+        <v>26.311338851361999</v>
+      </c>
+      <c r="D41">
+        <v>94.348887372787004</v>
+      </c>
+      <c r="E41">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F41">
+        <v>157.00499740959199</v>
+      </c>
       <c r="G41">
         <v>71.942921234606004</v>
       </c>
       <c r="J41" t="s">
         <v>106</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40" t="s">
+      <c r="L41" s="42"/>
+      <c r="M41" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40" t="s">
+      <c r="N41" s="42"/>
+      <c r="O41" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="P41" s="40"/>
-    </row>
-    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C42">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D42">
+        <v>34.398073949134002</v>
+      </c>
+      <c r="E42">
+        <v>8.1036945923159998</v>
+      </c>
+      <c r="F42">
+        <v>187.67635807960701</v>
+      </c>
       <c r="G42">
         <v>324.92483404370103</v>
       </c>
@@ -22536,20 +22876,35 @@
       <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42" s="40">
+      <c r="K42" s="42">
         <v>1.2</v>
       </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40">
+      <c r="L42" s="42"/>
+      <c r="M42" s="42">
         <v>3</v>
       </c>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40">
+      <c r="N42" s="42"/>
+      <c r="O42" s="42">
         <v>1.7929999999999999</v>
       </c>
-      <c r="P42" s="40"/>
-    </row>
-    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C43">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D43">
+        <v>3.681030360906</v>
+      </c>
+      <c r="E43">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F43">
+        <v>189.447032811795</v>
+      </c>
       <c r="G43">
         <v>128.518617588659</v>
       </c>
@@ -22559,20 +22914,35 @@
       <c r="J43">
         <v>20</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="42">
         <v>1.3</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40">
+      <c r="L43" s="42"/>
+      <c r="M43" s="42">
         <v>4</v>
       </c>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40">
+      <c r="N43" s="42"/>
+      <c r="O43" s="42">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P43" s="40"/>
-    </row>
-    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C44">
+        <v>22.362417966672002</v>
+      </c>
+      <c r="D44">
+        <v>6.7095269162099997</v>
+      </c>
+      <c r="E44">
+        <v>50.169120227364999</v>
+      </c>
+      <c r="F44">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="G44">
         <v>275.09504881078601</v>
       </c>
@@ -22582,20 +22952,35 @@
       <c r="J44">
         <v>50</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="42">
         <v>2.36</v>
       </c>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40">
+      <c r="L44" s="42"/>
+      <c r="M44" s="42">
         <v>6</v>
       </c>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40">
+      <c r="N44" s="42"/>
+      <c r="O44" s="42">
         <v>2.2669999999999999</v>
       </c>
-      <c r="P44" s="40"/>
-    </row>
-    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="42"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C45">
+        <v>10.365486463657</v>
+      </c>
+      <c r="D45">
+        <v>42.47405737687</v>
+      </c>
+      <c r="E45">
+        <v>11.926744215447</v>
+      </c>
+      <c r="F45">
+        <v>314.63395171376902</v>
+      </c>
       <c r="G45">
         <v>195.13322084120099</v>
       </c>
@@ -22605,20 +22990,35 @@
       <c r="J45">
         <v>100</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="42">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40">
+      <c r="L45" s="42"/>
+      <c r="M45" s="42">
         <v>8</v>
       </c>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40">
+      <c r="N45" s="42"/>
+      <c r="O45" s="42">
         <v>2.8820000000000001</v>
       </c>
-      <c r="P45" s="40"/>
-    </row>
-    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="42"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>17.537941040911999</v>
+      </c>
+      <c r="C46">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D46">
+        <v>7.4722401705749997</v>
+      </c>
+      <c r="E46">
+        <v>45.461697130087003</v>
+      </c>
+      <c r="F46">
+        <v>118.165601526559</v>
+      </c>
       <c r="G46">
         <v>103.63792642895901</v>
       </c>
@@ -22626,303 +23026,1138 @@
         <v>5</v>
       </c>
       <c r="J46">
-        <v>1000</v>
-      </c>
-      <c r="K46" s="40">
-        <v>3.55</v>
-      </c>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40">
-        <v>12</v>
-      </c>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="P46" s="40"/>
-    </row>
-    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>9.5244459912400004</v>
+      </c>
+      <c r="C47">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D47">
+        <v>46.830036201094003</v>
+      </c>
+      <c r="E47">
+        <v>5.4967324627469996</v>
+      </c>
+      <c r="F47">
+        <v>1302.67897561985</v>
+      </c>
       <c r="G47">
         <v>392.30318056909198</v>
       </c>
-    </row>
-    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="42">
+        <v>3.55</v>
+      </c>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42">
+        <v>12</v>
+      </c>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="P47" s="42"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C48">
+        <v>0.813333333336</v>
+      </c>
+      <c r="D48">
+        <v>6.8869318531810002</v>
+      </c>
+      <c r="E48">
+        <v>0.406666666668</v>
+      </c>
+      <c r="F48">
+        <v>153.149673265225</v>
+      </c>
       <c r="G48">
         <v>468.89023599369398</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C49">
+        <v>59.545461078955</v>
+      </c>
+      <c r="D49">
+        <v>62.247861208944002</v>
+      </c>
+      <c r="E49">
+        <v>2.9302375280150001</v>
+      </c>
+      <c r="F49">
+        <v>442.62012148203502</v>
+      </c>
       <c r="G49">
         <v>140.42318825362801</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C50">
+        <v>7.3452239308719998</v>
+      </c>
+      <c r="D50">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E50">
+        <v>25.729634938137</v>
+      </c>
+      <c r="F50">
+        <v>189.13909790722801</v>
+      </c>
       <c r="G50">
         <v>341.09450125046197</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3.5233421995329999</v>
+      </c>
+      <c r="C51">
+        <v>17.915116336406999</v>
+      </c>
+      <c r="D51">
+        <v>26.157284725164001</v>
+      </c>
+      <c r="E51">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F51">
+        <v>106.372294121343</v>
+      </c>
       <c r="G51">
         <v>214.36813919517701</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="44">
+      <c r="B52" s="36">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C52" s="36">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E52" s="36">
+        <v>41.828033901848002</v>
+      </c>
+      <c r="F52" s="36">
+        <v>30.866405287816001</v>
+      </c>
+      <c r="G52" s="36">
         <v>115.854555972505</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C53">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D53">
+        <v>3.6525900079600002</v>
+      </c>
+      <c r="E53">
+        <v>8.4869592579069995</v>
+      </c>
+      <c r="F53">
+        <v>173.78884682533101</v>
+      </c>
       <c r="G53">
         <v>311.38048194408901</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C54">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D54">
+        <v>42.794862011120998</v>
+      </c>
+      <c r="E54">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="F54">
+        <v>53.888007384237</v>
+      </c>
       <c r="G54">
         <v>107.47033688200599</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>28.322210376009998</v>
+      </c>
+      <c r="C55">
+        <v>32.432763678287003</v>
+      </c>
+      <c r="D55">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E55">
+        <v>31.526809550206</v>
+      </c>
+      <c r="F55">
+        <v>253.48141695486299</v>
+      </c>
       <c r="G55">
         <v>295.04579862025003</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>27.809751662490999</v>
+      </c>
+      <c r="C56">
+        <v>23.683399378238001</v>
+      </c>
+      <c r="D56">
+        <v>28.901100303155001</v>
+      </c>
+      <c r="E56">
+        <v>64.081744579146999</v>
+      </c>
+      <c r="F56">
+        <v>155.891540592121</v>
+      </c>
       <c r="G56">
         <v>3.055973270285</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C57">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D57">
+        <v>3.8078333522840002</v>
+      </c>
+      <c r="E57">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F57">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="G57">
         <v>99.205916725045995</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3.1754842850010001</v>
+      </c>
+      <c r="C58">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D58">
+        <v>18.490176486488998</v>
+      </c>
+      <c r="E58">
+        <v>90.349248236993006</v>
+      </c>
+      <c r="F58">
+        <v>0.406666666668</v>
+      </c>
       <c r="G58">
         <v>263.19777591765398</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>17.894892719017001</v>
+      </c>
+      <c r="C59">
+        <v>18.799200739968999</v>
+      </c>
+      <c r="D59">
+        <v>25.470006288337999</v>
+      </c>
+      <c r="E59">
+        <v>7.7532099889249997</v>
+      </c>
+      <c r="F59">
+        <v>164.146706085304</v>
+      </c>
       <c r="G59">
         <v>202.957194341264</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C60">
+        <v>39.724344413708998</v>
+      </c>
+      <c r="D60">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E60">
+        <v>15.165855163454999</v>
+      </c>
+      <c r="F60">
+        <v>149.34735163230201</v>
+      </c>
       <c r="G60">
         <v>78.929086700659994</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C61">
+        <v>21.341151289687001</v>
+      </c>
+      <c r="D61">
+        <v>5.0052666023599999</v>
+      </c>
+      <c r="E61">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F61">
+        <v>55.052370049334002</v>
+      </c>
       <c r="G61">
         <v>301.96342502124202</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>25.536257904770999</v>
+      </c>
+      <c r="C62">
+        <v>27.865843604169999</v>
+      </c>
+      <c r="D62">
+        <v>8.7763741247650007</v>
+      </c>
+      <c r="E62">
+        <v>35.134066048754001</v>
+      </c>
+      <c r="F62">
+        <v>37.81482370618</v>
+      </c>
       <c r="G62">
         <v>443.934189927565</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>5.2325084226829999</v>
+      </c>
+      <c r="C63">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D63">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E63">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F63">
+        <v>103.266934573328</v>
+      </c>
       <c r="G63">
         <v>0.71166666666900003</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C64">
+        <v>1.7756344105670001</v>
+      </c>
+      <c r="D64">
+        <v>68.854258470421001</v>
+      </c>
+      <c r="E64">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F64">
+        <v>39.426595874773</v>
+      </c>
       <c r="G64">
         <v>47.417512654692999</v>
       </c>
     </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>14.148977555778</v>
+      </c>
+      <c r="C65">
+        <v>32.996631678706002</v>
+      </c>
+      <c r="D65">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E65">
+        <v>56.818761986863002</v>
+      </c>
+      <c r="F65">
+        <v>124.815934206805</v>
+      </c>
       <c r="G65">
         <v>177.61986579333299</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>14.827911043217</v>
+      </c>
+      <c r="C66">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D66">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E66">
+        <v>88.725614065017993</v>
+      </c>
+      <c r="F66">
+        <v>177.318650824147</v>
+      </c>
       <c r="G66">
         <v>93.278348153707995</v>
       </c>
     </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>30.125507783187999</v>
+      </c>
+      <c r="C67">
+        <v>4.519549277636</v>
+      </c>
+      <c r="D67">
+        <v>81.829584711904999</v>
+      </c>
+      <c r="E67">
+        <v>0.813333333336</v>
+      </c>
+      <c r="F67">
+        <v>0.50833333333499997</v>
+      </c>
       <c r="G67">
         <v>283.78541313224599</v>
       </c>
     </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>11.198646520606999</v>
+      </c>
+      <c r="C68">
+        <v>24.974899266764002</v>
+      </c>
+      <c r="D68">
+        <v>27.720717295587999</v>
+      </c>
+      <c r="E68">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F68">
+        <v>91.250895492612003</v>
+      </c>
       <c r="G68">
         <v>219.40371542928801</v>
       </c>
     </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C69">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D69">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E69">
+        <v>33.320327124472001</v>
+      </c>
+      <c r="F69">
+        <v>75.026065635375005</v>
+      </c>
       <c r="G69">
         <v>376.2210226103</v>
       </c>
     </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C70">
+        <v>5.3565661213610003</v>
+      </c>
+      <c r="D70">
+        <v>85.136094657689995</v>
+      </c>
+      <c r="E70">
+        <v>133.77686629561001</v>
+      </c>
+      <c r="F70">
+        <v>315.860003630091</v>
+      </c>
       <c r="G70">
         <v>314.15390649384398</v>
       </c>
     </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>13.097642643453</v>
+      </c>
+      <c r="C71">
+        <v>31.850320021752001</v>
+      </c>
+      <c r="D71">
+        <v>6.5316745823240003</v>
+      </c>
+      <c r="E71">
+        <v>42.710353006630001</v>
+      </c>
+      <c r="F71">
+        <v>99.573468666034998</v>
+      </c>
       <c r="G71">
         <v>182.259932613026</v>
       </c>
     </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C72">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="D72">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E72">
+        <v>65.934921739535</v>
+      </c>
+      <c r="F72">
+        <v>179.70039621088301</v>
+      </c>
       <c r="G72">
         <v>75.965647347065001</v>
       </c>
     </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2.9572546207469999</v>
+      </c>
+      <c r="C73">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D73">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E73">
+        <v>133.90524144655899</v>
+      </c>
+      <c r="F73">
+        <v>39.395036768280001</v>
+      </c>
       <c r="G73">
         <v>138.47957172017399</v>
       </c>
     </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C74">
+        <v>5.5938936934520003</v>
+      </c>
+      <c r="D74">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E74">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F74">
+        <v>411.92036090321801</v>
+      </c>
       <c r="G74">
         <v>32.985180864497003</v>
       </c>
     </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C75">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D75">
+        <v>8.3321253846429997</v>
+      </c>
+      <c r="E75">
+        <v>10.457213951599</v>
+      </c>
+      <c r="F75">
+        <v>32.675111561336003</v>
+      </c>
       <c r="G75">
         <v>52.283042254028999</v>
       </c>
     </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C76">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D76">
+        <v>23.264753694509999</v>
+      </c>
+      <c r="E76">
+        <v>68.601784589185002</v>
+      </c>
+      <c r="F76">
+        <v>12.684328270424</v>
+      </c>
       <c r="G76">
         <v>142.03301635017399</v>
       </c>
     </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>15.282793612827</v>
+      </c>
+      <c r="C77">
+        <v>33.662477846629002</v>
+      </c>
+      <c r="D77">
+        <v>33.504995070573997</v>
+      </c>
+      <c r="E77">
+        <v>6.0328862674519996</v>
+      </c>
+      <c r="F77">
+        <v>105.75258597056801</v>
+      </c>
       <c r="G77">
         <v>61.174649477480003</v>
       </c>
     </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C78">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D78">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E78">
+        <v>41.015323147727003</v>
+      </c>
+      <c r="F78">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="G78">
         <v>401.78510693407998</v>
       </c>
     </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="C79">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D79">
+        <v>27.115507758166999</v>
+      </c>
+      <c r="E79">
+        <v>33.037804756626002</v>
+      </c>
+      <c r="F79">
+        <v>49.281173927485</v>
+      </c>
       <c r="G79">
         <v>231.43576988547301</v>
       </c>
     </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C80">
+        <v>23.369941937244</v>
+      </c>
+      <c r="D80">
+        <v>23.332949398703001</v>
+      </c>
+      <c r="E80">
+        <v>42.862706986501998</v>
+      </c>
+      <c r="F80">
+        <v>553.62445485001399</v>
+      </c>
       <c r="G80">
         <v>24.953089168097002</v>
       </c>
     </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>17.316442666589001</v>
+      </c>
+      <c r="C81">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D81">
+        <v>9.4408969463550001</v>
+      </c>
+      <c r="E81">
+        <v>47.174483146531003</v>
+      </c>
+      <c r="F81">
+        <v>107.07785055682</v>
+      </c>
       <c r="G81">
         <v>0.71166666666900003</v>
       </c>
     </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C82">
+        <v>44.160456998043998</v>
+      </c>
+      <c r="D82">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E82">
+        <v>25.116995861267</v>
+      </c>
+      <c r="F82">
+        <v>449.57333035797399</v>
+      </c>
       <c r="G82">
         <v>59.881119630809003</v>
       </c>
     </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>8.153544472159</v>
+      </c>
+      <c r="C83">
+        <v>6.6858184850270002</v>
+      </c>
+      <c r="D83">
+        <v>55.892516086074998</v>
+      </c>
+      <c r="E83">
+        <v>32.026899080286</v>
+      </c>
+      <c r="F83">
+        <v>337.71606921770598</v>
+      </c>
       <c r="G83">
         <v>345.89987002363802</v>
       </c>
     </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C84">
+        <v>5.3583797948539997</v>
+      </c>
+      <c r="D84">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="E84">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F84">
+        <v>181.660310234843</v>
+      </c>
       <c r="G84">
         <v>165.960000483644</v>
       </c>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>19.317744104003999</v>
+      </c>
+      <c r="C85">
+        <v>12.481648125594999</v>
+      </c>
+      <c r="D85">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E85">
+        <v>1.107539585402</v>
+      </c>
+      <c r="F85">
+        <v>51.100849885039999</v>
+      </c>
       <c r="G85">
         <v>145.161502339658</v>
       </c>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>17.931334004119002</v>
+      </c>
+      <c r="C86">
+        <v>26.594614915558999</v>
+      </c>
+      <c r="D86">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E86">
+        <v>163.53766131592499</v>
+      </c>
+      <c r="F86">
+        <v>0.50833333333499997</v>
+      </c>
       <c r="G86">
         <v>801.43765520804095</v>
       </c>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C87">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D87">
+        <v>0.406666666668</v>
+      </c>
+      <c r="E87">
+        <v>27.168449220248</v>
+      </c>
+      <c r="F87">
+        <v>315.45075756115</v>
+      </c>
       <c r="G87">
         <v>384.53817500556602</v>
       </c>
     </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>17.202081044985999</v>
+      </c>
+      <c r="C88">
+        <v>13.764683748976999</v>
+      </c>
+      <c r="D88">
+        <v>17.648199632476999</v>
+      </c>
+      <c r="E88">
+        <v>20.240172224165001</v>
+      </c>
+      <c r="F88">
+        <v>0.813333333336</v>
+      </c>
       <c r="G88">
         <v>316.37321431914899</v>
       </c>
     </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C89">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D89">
+        <v>20.185488745080999</v>
+      </c>
+      <c r="E89">
+        <v>53.250527466560001</v>
+      </c>
+      <c r="F89">
+        <v>189.485584745278</v>
+      </c>
       <c r="G89">
         <v>127.668943016612</v>
       </c>
     </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C90">
+        <v>36.012511863526001</v>
+      </c>
+      <c r="D90">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E90">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F90">
+        <v>129.74032361631299</v>
+      </c>
       <c r="G90">
         <v>135.35760747539999</v>
       </c>
     </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>19.972905360919</v>
+      </c>
+      <c r="C91">
+        <v>16.367203281140998</v>
+      </c>
+      <c r="D91">
+        <v>30.371796016198001</v>
+      </c>
+      <c r="E91">
+        <v>4.0926055180540004</v>
+      </c>
+      <c r="F91">
+        <v>215.364158086088</v>
+      </c>
       <c r="G91">
         <v>88.123859268858993</v>
       </c>
     </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>22.00863899738</v>
+      </c>
+      <c r="C92">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D92">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E92">
+        <v>40.657853564261003</v>
+      </c>
+      <c r="F92">
+        <v>197.840756446185</v>
+      </c>
       <c r="G92">
         <v>0.71166666666900003</v>
       </c>
     </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C93">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="D93">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="E93">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F93">
+        <v>54.241083684918003</v>
+      </c>
       <c r="G93">
         <v>96.344996679432001</v>
       </c>
     </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C94">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D94">
+        <v>11.435585365942</v>
+      </c>
+      <c r="E94">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="F94">
+        <v>80.303317444178006</v>
+      </c>
       <c r="G94">
         <v>124.10372662862299</v>
       </c>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>19.914338772327</v>
+      </c>
+      <c r="C95">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="D95">
+        <v>13.610883230456</v>
+      </c>
+      <c r="E95">
+        <v>24.964190793105999</v>
+      </c>
+      <c r="F95">
+        <v>77.959665146901003</v>
+      </c>
       <c r="G95">
         <v>187.07135795687401</v>
       </c>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.30500000000100003</v>
+      </c>
+      <c r="C96">
+        <v>4.8676845187279998</v>
+      </c>
+      <c r="D96">
+        <v>21.304633273355002</v>
+      </c>
+      <c r="E96">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F96">
+        <v>0.71166666666900003</v>
+      </c>
       <c r="G96">
         <v>89.927449309771006</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="C97">
+        <v>17.993565606901001</v>
+      </c>
+      <c r="D97">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E97">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="F97">
+        <v>76.015944812027001</v>
+      </c>
       <c r="G97">
         <v>506.78310102983698</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C98">
+        <v>21.095186196099998</v>
+      </c>
+      <c r="D98">
+        <v>67.728811746912996</v>
+      </c>
+      <c r="E98">
+        <v>5.0725625826030001</v>
+      </c>
+      <c r="F98">
+        <v>96.232015236256998</v>
+      </c>
       <c r="G98">
         <v>128.014113039694</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C99">
+        <v>6.7231223498460002</v>
+      </c>
+      <c r="D99">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="E99">
+        <v>83.485358655252</v>
+      </c>
       <c r="G99">
         <v>20.745411063750002</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C100">
+        <v>9.583215006903</v>
+      </c>
+      <c r="D100">
+        <v>0.61000000000200005</v>
+      </c>
+      <c r="E100">
+        <v>79.193221262807995</v>
+      </c>
       <c r="G100">
         <v>66.971189478723005</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>21.172210518517002</v>
+      </c>
+      <c r="C101">
+        <v>17.804098621731001</v>
+      </c>
+      <c r="D101">
+        <v>15.837311987010001</v>
+      </c>
+      <c r="E101">
+        <v>63.126462498484997</v>
+      </c>
       <c r="G101">
         <v>193.39721661619399</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
     <mergeCell ref="J40:P40"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K44:L44"/>
@@ -22933,15 +24168,6 @@
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O43:P43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44150,7 +45376,7 @@
       </c>
     </row>
     <row r="108" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="43" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="5">
@@ -44173,7 +45399,7 @@
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="43"/>
+      <c r="A109" s="44"/>
       <c r="B109">
         <v>1.32</v>
       </c>
@@ -44218,7 +45444,7 @@
       <c r="Z109" s="18"/>
     </row>
     <row r="110" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
+      <c r="A110" s="44"/>
       <c r="B110">
         <v>4.9858304269760003</v>
       </c>
@@ -44251,7 +45477,7 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
+      <c r="A111" s="44"/>
       <c r="B111">
         <v>6.3728169473809997</v>
       </c>
@@ -44308,7 +45534,7 @@
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
+      <c r="A112" s="44"/>
       <c r="B112">
         <v>9.3210768256519998</v>
       </c>

--- a/Data Collection Sim 0.xlsx
+++ b/Data Collection Sim 0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeer\Desktop\University\TrustChain-Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE186371-2955-4D74-A177-1F52675EAF1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06EF97-E21E-4DFA-8B25-7C716AB27DFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{BCACAF04-D4C4-41AE-BAB0-4F6EFB70057E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Planning" sheetId="3" r:id="rId1"/>
@@ -344,10 +344,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="183" formatCode="0.00000000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -590,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -603,9 +606,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,20 +679,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="12" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="13" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="60% - Accent1" xfId="10" builtinId="32"/>
     <cellStyle name="60% - Accent2" xfId="11" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
@@ -696,7 +702,8 @@
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Explanatory Text" xfId="12" builtinId="53"/>
+    <cellStyle name="Comma" xfId="12" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="13" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
@@ -18639,8 +18646,8 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:A37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20795,10 +20802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF874DAA-691A-4835-ACA3-DB30922CFD6B}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23003,6 +23010,32 @@
       </c>
       <c r="G101">
         <v>193.39721661619399</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>5.5214805828889588</v>
+      </c>
+      <c r="C102" s="7">
+        <f>AVERAGE(C2:C101)</f>
+        <v>11.33199432943567</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" ref="C102:G102" si="0">AVERAGE(D2:D101)</f>
+        <v>21.109886040443318</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="0"/>
+        <v>35.235011978285819</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="0"/>
+        <v>102.54954653965635</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="0"/>
+        <v>193.21242648788314</v>
       </c>
     </row>
   </sheetData>
@@ -23037,10 +23070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8ADDF3-F6DC-49DE-90F6-6F07047D1F12}">
-  <dimension ref="A1:Q1001"/>
+  <dimension ref="A1:Q1002"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A166" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24570,6 +24603,10 @@
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>102.54954653965635</v>
+      </c>
       <c r="C102" s="28">
         <v>256.03348630134798</v>
       </c>
@@ -25428,6 +25465,10 @@
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="7">
+        <f>AVERAGE(C2:C179)</f>
+        <v>123.92416126226949</v>
+      </c>
       <c r="D180" s="28">
         <v>45.716699041277003</v>
       </c>
@@ -30261,6 +30302,12 @@
     <row r="1001" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1001" s="28">
         <v>145.09921649036701</v>
+      </c>
+    </row>
+    <row r="1002" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1002" s="7">
+        <f>AVERAGE(D2:D1001)</f>
+        <v>125.89198592564668</v>
       </c>
     </row>
   </sheetData>
@@ -30271,10 +30318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB14316-39CC-412C-A762-31F37CE381A2}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32358,6 +32405,32 @@
       </c>
       <c r="G101">
         <v>100.53117275410899</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>567.52936722291315</v>
+      </c>
+      <c r="C102" s="7">
+        <f t="shared" ref="C102:G102" si="0">AVERAGE(C2:C101)</f>
+        <v>137.32851215026486</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="0"/>
+        <v>115.46403979834899</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="0"/>
+        <v>116.4595298035816</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="0"/>
+        <v>121.47862956712029</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="0"/>
+        <v>125.75558301610687</v>
       </c>
     </row>
   </sheetData>
@@ -42637,8 +42710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEB8E32-D847-46DD-A9C2-FCA6CC8CF645}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="R96" sqref="R96"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44413,11 +44486,26 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>98.811194611377999</v>
+      </c>
+      <c r="C102" s="7">
+        <f t="shared" ref="C102:F102" si="0">AVERAGE(C2:C101)</f>
+        <v>109.30226050461641</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="0"/>
+        <v>102.54954653965635</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="0"/>
+        <v>450.71714130953342</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="0"/>
+        <v>16191.786017132834</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
@@ -44436,8 +44524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE560BB-010F-4538-8606-72D35C2079F1}">
   <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46452,7 +46540,9 @@
       <c r="D98" s="28">
         <v>50.517302127724001</v>
       </c>
-      <c r="E98" s="28"/>
+      <c r="E98" s="28">
+        <v>206.68521586864199</v>
+      </c>
       <c r="F98" s="28">
         <v>183.63746924976499</v>
       </c>
@@ -46470,7 +46560,9 @@
       <c r="D99" s="28">
         <v>36.000054616729997</v>
       </c>
-      <c r="E99" s="28"/>
+      <c r="E99" s="28">
+        <v>118.297081984106</v>
+      </c>
       <c r="F99" s="28">
         <v>146.13459715412199</v>
       </c>
@@ -46485,8 +46577,12 @@
       <c r="C100" s="28">
         <v>67.081683671850996</v>
       </c>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
+      <c r="D100" s="28">
+        <v>182.372494086247</v>
+      </c>
+      <c r="E100" s="28">
+        <v>98.854456549424995</v>
+      </c>
       <c r="F100" s="28">
         <v>0.61016666666800001</v>
       </c>
@@ -46501,8 +46597,12 @@
       <c r="C101" s="28">
         <v>110.12879755426</v>
       </c>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
+      <c r="D101" s="28">
+        <v>125.78557982594801</v>
+      </c>
+      <c r="E101" s="28">
+        <v>46.777544888016998</v>
+      </c>
       <c r="F101" s="28">
         <v>27.749304471230001</v>
       </c>
@@ -46511,12 +46611,30 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>102.54954653965635</v>
+      </c>
+      <c r="C102" s="7">
+        <f t="shared" ref="C102:G102" si="0">AVERAGE(C2:C101)</f>
+        <v>118.89658364760797</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="0"/>
+        <v>118.41586913425608</v>
+      </c>
+      <c r="E102" s="7">
+        <f>AVERAGE(E2:E101)</f>
+        <v>98.372853389724511</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="0"/>
+        <v>126.80498435993009</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="0"/>
+        <v>118.45145669079341</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
@@ -46554,8 +46672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB00259A-76EF-42CC-A63F-F0BB8151E029}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48330,11 +48448,26 @@
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
+      <c r="B102" s="7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>108.52063876400031</v>
+      </c>
+      <c r="C102" s="7">
+        <f t="shared" ref="C102:F102" si="0">AVERAGE(C2:C101)</f>
+        <v>41.359168470417529</v>
+      </c>
+      <c r="D102" s="7">
+        <f t="shared" si="0"/>
+        <v>251.66183465383642</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="0"/>
+        <v>1836.8521270775389</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="0"/>
+        <v>22960.01355553676</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
@@ -48417,16 +48550,16 @@
   <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -48452,165 +48585,365 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="B2" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C2" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D2" s="40">
+        <v>87.436393806940998</v>
+      </c>
+      <c r="E2" s="41">
+        <v>250.09296160712199</v>
+      </c>
+      <c r="F2" s="43">
+        <v>655.28547836164603</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C3" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D3" s="40">
+        <v>184.578324422208</v>
+      </c>
+      <c r="E3" s="41">
+        <v>55.696932691256002</v>
+      </c>
+      <c r="F3" s="43">
+        <v>4087.1148103248602</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C4" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D4" s="40">
+        <v>210.840393233296</v>
+      </c>
+      <c r="E4" s="41">
+        <v>176.45556663527199</v>
+      </c>
+      <c r="F4" s="43">
+        <v>4126.67146411467</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C5" s="40">
+        <v>110.311281170382</v>
+      </c>
+      <c r="D5" s="40">
+        <v>45.27214752135</v>
+      </c>
+      <c r="E5" s="41">
+        <v>312.73053741213101</v>
+      </c>
+      <c r="F5" s="43">
+        <v>2379.3352547640902</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D6" s="40">
+        <v>66.634162536689004</v>
+      </c>
+      <c r="E6" s="41">
+        <v>63.651510017919001</v>
+      </c>
+      <c r="F6" s="43">
+        <v>4154.4538241390001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D7" s="40">
+        <v>154.614846213524</v>
+      </c>
+      <c r="E7" s="41">
+        <v>58.960814161080002</v>
+      </c>
+      <c r="F7" s="43">
+        <v>2607.6981729571398</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C8" s="40">
+        <v>113.15620945111</v>
+      </c>
+      <c r="D8" s="40">
+        <v>222.67954919611799</v>
+      </c>
+      <c r="E8" s="41">
+        <v>7.6642678499479997</v>
+      </c>
+      <c r="F8" s="43">
+        <v>5308.2221052776604</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="B9" s="44">
+        <v>0.406666666668</v>
+      </c>
+      <c r="C9" s="40">
+        <v>33.696513207873998</v>
+      </c>
+      <c r="D9" s="40">
+        <v>78.599566052674007</v>
+      </c>
+      <c r="E9" s="41">
+        <v>178.823888662808</v>
+      </c>
+      <c r="F9" s="43">
+        <v>421.980966458328</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D10" s="40">
+        <v>30.642872555421999</v>
+      </c>
+      <c r="E10" s="41">
+        <v>226.64794878262501</v>
+      </c>
+      <c r="F10" s="43">
+        <v>4195.1749899176102</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D11" s="40">
+        <v>1.2604497537929999</v>
+      </c>
+      <c r="E11" s="41">
+        <v>331.05062641088699</v>
+      </c>
+      <c r="F11" s="43">
+        <v>3997.7461100102901</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="C12" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D12" s="40">
+        <v>33.360520638086001</v>
+      </c>
+      <c r="E12" s="41">
+        <v>260.81205845457703</v>
+      </c>
+      <c r="F12" s="43">
+        <v>2892.65018454244</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="C13" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D13" s="40">
+        <v>131.14995814922</v>
+      </c>
+      <c r="E13" s="41">
+        <v>60.590890876339003</v>
+      </c>
+      <c r="F13" s="43">
+        <v>4880.8893986461899</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
+      <c r="C14" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D14" s="40">
+        <v>103.456745708874</v>
+      </c>
+      <c r="E14" s="41">
+        <v>67.381188754283997</v>
+      </c>
+      <c r="F14" s="43">
+        <v>2678.1647008825298</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="C15" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.813333333336</v>
+      </c>
+      <c r="E15" s="41">
+        <v>92.636252996430002</v>
+      </c>
+      <c r="F15" s="43">
+        <v>734.86927591021401</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="40">
+        <v>95.678212007157001</v>
+      </c>
+      <c r="D16" s="40">
+        <v>122.452699723423</v>
+      </c>
+      <c r="E16" s="41">
+        <v>175.928690668314</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2099.8203003578301</v>
+      </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
+      <c r="C17" s="40">
+        <v>75.810779305322995</v>
+      </c>
+      <c r="D17" s="40">
+        <v>114.265521586603</v>
+      </c>
+      <c r="E17" s="41">
+        <v>311.64399519077398</v>
+      </c>
+      <c r="F17" s="43">
+        <v>2422.8303138598799</v>
+      </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
+      <c r="C18" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D18" s="40">
+        <v>267.82792769581198</v>
+      </c>
+      <c r="E18" s="41">
+        <v>237.544772872142</v>
+      </c>
+      <c r="F18" s="43">
+        <v>8054.5788923947503</v>
+      </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="C19" s="40">
+        <v>156.30260621395999</v>
+      </c>
+      <c r="D19" s="40">
+        <v>29.170763040049</v>
+      </c>
+      <c r="E19" s="41">
+        <v>69.098917665715007</v>
+      </c>
+      <c r="F19" s="43">
+        <v>3713.7577391128102</v>
+      </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
+      <c r="C20" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D20" s="40">
+        <v>163.51303762204799</v>
+      </c>
+      <c r="E20" s="41">
+        <v>331.541508233554</v>
+      </c>
+      <c r="F20" s="43">
+        <v>2031.06967010057</v>
+      </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
+      <c r="C21" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D21" s="40">
+        <v>92.559133586751997</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1.4233333333380001</v>
+      </c>
+      <c r="F21" s="43">
+        <v>7.8785933977629998</v>
+      </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D22" s="40">
+        <v>254.23426845159</v>
+      </c>
+      <c r="E22" s="41">
+        <v>125.415347195034</v>
+      </c>
+      <c r="F22" s="43">
+        <v>2927.0111982560502</v>
+      </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="C23" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D23" s="40">
+        <v>108.34635403481001</v>
+      </c>
+      <c r="E23" s="41">
+        <v>247.44443087251699</v>
+      </c>
+      <c r="F23" s="43">
+        <v>1154.48513568609</v>
+      </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="C24" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D24" s="40">
+        <v>149.418054453536</v>
+      </c>
+      <c r="E24" s="41">
+        <v>450.43177651501497</v>
+      </c>
+      <c r="F24" s="43">
+        <v>5292.7913587865996</v>
+      </c>
       <c r="I24" s="7" t="s">
         <v>29</v>
       </c>
@@ -48637,10 +48970,18 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D25" s="40">
+        <v>390.43292197448199</v>
+      </c>
+      <c r="E25" s="41">
+        <v>202.774813275837</v>
+      </c>
+      <c r="F25" s="43">
+        <v>1850.03033107396</v>
+      </c>
       <c r="I25" s="7" t="s">
         <v>66</v>
       </c>
@@ -48667,537 +49008,1145 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="C26" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D26" s="40">
+        <v>159.12073768594101</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1.869123941042</v>
+      </c>
+      <c r="F26" s="43">
+        <v>2370.6722244738098</v>
+      </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="C27" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D27" s="40">
+        <v>57.327654570245002</v>
+      </c>
+      <c r="E27" s="41">
+        <v>103.713345870952</v>
+      </c>
+      <c r="F27" s="43">
+        <v>2810.0929567343601</v>
+      </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
+      <c r="C28" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D28" s="40">
+        <v>159.73447435938201</v>
+      </c>
+      <c r="E28" s="41">
+        <v>228.507179525846</v>
+      </c>
+      <c r="F28" s="43">
+        <v>2225.1921827911001</v>
+      </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="C29" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D29" s="40">
+        <v>65.396935537176006</v>
+      </c>
+      <c r="E29" s="41">
+        <v>58.829873000219003</v>
+      </c>
+      <c r="F29" s="43">
+        <v>3096.2313912260302</v>
+      </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="C30" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D30" s="40">
+        <v>179.77448834887099</v>
+      </c>
+      <c r="E30" s="41">
+        <v>180.65286971922001</v>
+      </c>
+      <c r="F30" s="43">
+        <v>2886.7431009427401</v>
+      </c>
       <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D31" s="40">
+        <v>102.06707372027699</v>
+      </c>
+      <c r="E31" s="41">
+        <v>241.85561063503201</v>
+      </c>
+      <c r="F31" s="43">
+        <v>1742.6170603466801</v>
+      </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D32" s="40">
+        <v>292.23414330366597</v>
+      </c>
+      <c r="E32" s="41">
+        <v>45.062121172440001</v>
+      </c>
+      <c r="F32" s="43">
+        <v>2123.1560622004299</v>
+      </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="C33" s="40">
+        <v>153.79980291901001</v>
+      </c>
+      <c r="D33" s="40">
+        <v>138.59695510659699</v>
+      </c>
+      <c r="E33" s="41">
+        <v>68.347284915651997</v>
+      </c>
+      <c r="F33" s="43">
+        <v>4128.2440344019096</v>
+      </c>
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="40">
+        <v>33.080808019609997</v>
+      </c>
+      <c r="D34" s="40">
+        <v>192.082001447236</v>
+      </c>
+      <c r="E34" s="41">
+        <v>193.37227307137101</v>
+      </c>
+      <c r="F34" s="43">
+        <v>1135.95549166859</v>
+      </c>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="40">
+        <v>139.01642215807999</v>
+      </c>
+      <c r="D35" s="40">
+        <v>87.079367786887005</v>
+      </c>
+      <c r="E35" s="41">
+        <v>62.668967548863002</v>
+      </c>
+      <c r="F35" s="43">
+        <v>6382.5814739291</v>
+      </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="40">
+        <v>165.38132297555299</v>
+      </c>
+      <c r="D36" s="40">
+        <v>350.46075987571902</v>
+      </c>
+      <c r="E36" s="41">
+        <v>160.592284817208</v>
+      </c>
+      <c r="F36" s="43">
+        <v>2765.6378439320702</v>
+      </c>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
+      <c r="C37" s="40">
+        <v>27.276247497960998</v>
+      </c>
+      <c r="D37" s="40">
+        <v>96.707607369485999</v>
+      </c>
+      <c r="E37" s="41">
+        <v>203.54471560762201</v>
+      </c>
+      <c r="F37" s="43">
+        <v>1203.99849465992</v>
+      </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D38" s="40">
+        <v>132.34025657224399</v>
+      </c>
+      <c r="E38" s="41">
+        <v>285.53796812001599</v>
+      </c>
+      <c r="F38" s="43">
+        <v>7627.2637157008103</v>
+      </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="C39" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D39" s="40">
+        <v>100.673930564828</v>
+      </c>
+      <c r="E39" s="41">
+        <v>44.883748065223003</v>
+      </c>
+      <c r="F39" s="43">
+        <v>3473.1528015333301</v>
+      </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
+      <c r="C40" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D40" s="40">
+        <v>23.392576793202</v>
+      </c>
+      <c r="E40" s="41">
+        <v>18.948177587288999</v>
+      </c>
+      <c r="F40" s="43">
+        <v>7012.3444669861801</v>
+      </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D41" s="40">
+        <v>9.4883244944590004</v>
+      </c>
+      <c r="E41" s="41">
+        <v>26.610409123435002</v>
+      </c>
+      <c r="F41" s="43">
+        <v>3687.4077049841499</v>
+      </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="C42" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D42" s="40">
+        <v>43.243367125485001</v>
+      </c>
+      <c r="E42" s="41">
+        <v>217.11260618006301</v>
+      </c>
+      <c r="F42" s="43">
+        <v>2080.6288466138399</v>
+      </c>
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
+      <c r="C43" s="40">
+        <v>29.114383458519001</v>
+      </c>
+      <c r="D43" s="40">
+        <v>187.66047127968</v>
+      </c>
+      <c r="E43" s="41">
+        <v>486.27978324303001</v>
+      </c>
+      <c r="F43" s="43">
+        <v>2514.4847605986702</v>
+      </c>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
+      <c r="C44" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D44" s="40">
+        <v>93.229633595729993</v>
+      </c>
+      <c r="E44" s="41">
+        <v>17.165649838421</v>
+      </c>
+      <c r="F44" s="43">
+        <v>2979.8627679695601</v>
+      </c>
     </row>
     <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
+      <c r="C45" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D45" s="40">
+        <v>98.316455384400001</v>
+      </c>
+      <c r="E45" s="41">
+        <v>42.336813207393</v>
+      </c>
+      <c r="F45" s="43">
+        <v>3458.8443913226401</v>
+      </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
+      <c r="C46" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D46" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E46" s="41">
+        <v>89.368656622892004</v>
+      </c>
+      <c r="F46" s="43">
+        <v>4095.55832394044</v>
+      </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
+      <c r="C47" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D47" s="40">
+        <v>168.68094039041301</v>
+      </c>
+      <c r="E47" s="41">
+        <v>246.72222946520799</v>
+      </c>
+      <c r="F47" s="43">
+        <v>2371.80893852598</v>
+      </c>
     </row>
     <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="28"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
+      <c r="C48" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D48" s="40">
+        <v>78.345589668257006</v>
+      </c>
+      <c r="E48" s="41">
+        <v>48.312987006352998</v>
+      </c>
+      <c r="F48" s="43">
+        <v>6907.4395345430803</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
+      <c r="C49" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D49" s="40">
+        <v>217.34648769064199</v>
+      </c>
+      <c r="E49" s="41">
+        <v>308.21663687047999</v>
+      </c>
+      <c r="F49" s="43">
+        <v>2905.9726518110601</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="28"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
+      <c r="C50" s="40">
+        <v>36.520098581325001</v>
+      </c>
+      <c r="D50" s="40">
+        <v>275.172064415298</v>
+      </c>
+      <c r="E50" s="41">
+        <v>201.253160983881</v>
+      </c>
+      <c r="F50" s="43">
+        <v>5541.0234249015502</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="28"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
+      <c r="C51" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D51" s="40">
+        <v>212.13283379601901</v>
+      </c>
+      <c r="E51" s="41">
+        <v>54.685188476924999</v>
+      </c>
+      <c r="F51" s="43">
+        <v>792.72936076353596</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
+      <c r="C52" s="40">
+        <v>90.695243929312994</v>
+      </c>
+      <c r="D52" s="40">
+        <v>41.633552105234997</v>
+      </c>
+      <c r="E52" s="41">
+        <v>26.806216322171998</v>
+      </c>
+      <c r="F52" s="43">
+        <v>5438.8241270082599</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="28"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
+      <c r="C53" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D53" s="40">
+        <v>346.83149631235</v>
+      </c>
+      <c r="E53" s="41">
+        <v>228.02306232203401</v>
+      </c>
+      <c r="F53" s="43">
+        <v>2229.15504523241</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="42"/>
+      <c r="C54" s="40">
+        <v>8.7504044233790008</v>
+      </c>
+      <c r="D54" s="40">
+        <v>0.71166666666900003</v>
+      </c>
+      <c r="E54" s="41">
+        <v>235.32672677198201</v>
+      </c>
+      <c r="F54" s="43">
+        <v>3751.85422799669</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="28"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="42"/>
+      <c r="C55" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D55" s="40">
+        <v>301.05274376500199</v>
+      </c>
+      <c r="E55" s="41">
+        <v>310.09662801133197</v>
+      </c>
+      <c r="F55" s="43">
+        <v>1489.3892495702401</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="28"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="42"/>
+      <c r="C56" s="40">
+        <v>17.281824381831999</v>
+      </c>
+      <c r="D56" s="40">
+        <v>164.86065254410701</v>
+      </c>
+      <c r="E56" s="41">
+        <v>240.852616602317</v>
+      </c>
+      <c r="F56" s="43">
+        <v>5983.97725011492</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="42"/>
+      <c r="C57" s="40">
+        <v>21.895567771024002</v>
+      </c>
+      <c r="D57" s="40">
+        <v>84.232411402142006</v>
+      </c>
+      <c r="E57" s="41">
+        <v>349.10961030841099</v>
+      </c>
+      <c r="F57" s="43">
+        <v>6543.6093282750899</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="28"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="42"/>
+      <c r="C58" s="40">
+        <v>10.290950251851999</v>
+      </c>
+      <c r="D58" s="40">
+        <v>204.69723998669701</v>
+      </c>
+      <c r="E58" s="41">
+        <v>77.922086064850006</v>
+      </c>
+      <c r="F58" s="43">
+        <v>3771.9574561715799</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="42"/>
+      <c r="C59" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0.91500000000299997</v>
+      </c>
+      <c r="E59" s="41">
+        <v>14.058580287155999</v>
+      </c>
+      <c r="F59" s="43">
+        <v>3852.9891165434801</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="28"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="42"/>
+      <c r="C60" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D60" s="40">
+        <v>25.602510144421998</v>
+      </c>
+      <c r="E60" s="41">
+        <v>168.83822412216099</v>
+      </c>
+      <c r="F60" s="43">
+        <v>3264.7917319743101</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
+      <c r="C61" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D61" s="40">
+        <v>69.608278180317001</v>
+      </c>
+      <c r="E61" s="41">
+        <v>57.163282007802998</v>
+      </c>
+      <c r="F61" s="43">
+        <v>695.92837218624004</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="28"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="C62" s="40">
+        <v>117.28995565932399</v>
+      </c>
+      <c r="D62" s="40">
+        <v>122.436734944256</v>
+      </c>
+      <c r="E62" s="41">
+        <v>304.77454297791201</v>
+      </c>
+      <c r="F62" s="43">
+        <v>3529.5778640594799</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="28"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="42"/>
+      <c r="C63" s="40">
+        <v>29.335971849366</v>
+      </c>
+      <c r="D63" s="40">
+        <v>150.77137249215701</v>
+      </c>
+      <c r="E63" s="41">
+        <v>161.266628170844</v>
+      </c>
+      <c r="F63" s="43">
+        <v>1116.8966241974999</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="28"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="42"/>
+      <c r="C64" s="40">
+        <v>9.8452909244650009</v>
+      </c>
+      <c r="D64" s="40">
+        <v>239.11206143872101</v>
+      </c>
+      <c r="E64" s="41">
+        <v>325.27277851690599</v>
+      </c>
+      <c r="F64" s="43">
+        <v>6400.5787856557699</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="28"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="42"/>
+      <c r="C65" s="40">
+        <v>46.093754464973998</v>
+      </c>
+      <c r="D65" s="40">
+        <v>93.461166907220004</v>
+      </c>
+      <c r="E65" s="41">
+        <v>262.29572541806499</v>
+      </c>
+      <c r="F65" s="43">
+        <v>4901.2338346490696</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="28"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="42"/>
+      <c r="C66" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D66" s="40">
+        <v>33.184923596975999</v>
+      </c>
+      <c r="E66" s="41">
+        <v>326.306459269919</v>
+      </c>
+      <c r="F66" s="43">
+        <v>2648.9125019302601</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="28"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
+      <c r="C67" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D67" s="40">
+        <v>91.176421038499001</v>
+      </c>
+      <c r="E67" s="41">
+        <v>85.435987863907997</v>
+      </c>
+      <c r="F67" s="43">
+        <v>5445.0791761617802</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="28"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
+      <c r="C68" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D68" s="40">
+        <v>91.065492005061003</v>
+      </c>
+      <c r="E68" s="41">
+        <v>247.942279875613</v>
+      </c>
+      <c r="F68" s="43">
+        <v>6224.7203521389802</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="28"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="42"/>
+      <c r="C69" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D69" s="40">
+        <v>134.386109513279</v>
+      </c>
+      <c r="E69" s="41">
+        <v>405.30184326887598</v>
+      </c>
+      <c r="F69" s="43">
+        <v>2791.2688629979698</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="28"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="42"/>
+      <c r="C70" s="40">
+        <v>18.923516381075999</v>
+      </c>
+      <c r="D70" s="40">
+        <v>267.47069715822403</v>
+      </c>
+      <c r="E70" s="41">
+        <v>184.12642942779601</v>
+      </c>
+      <c r="F70" s="43">
+        <v>1177.20020121977</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="28"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="42"/>
+      <c r="C71" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D71" s="40">
+        <v>263.71545774104902</v>
+      </c>
+      <c r="E71" s="41">
+        <v>177.51290945812701</v>
+      </c>
+      <c r="F71" s="43">
+        <v>3272.6966539804698</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="28"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
+      <c r="C72" s="40">
+        <v>1.7070088911500001</v>
+      </c>
+      <c r="D72" s="40">
+        <v>55.752407066478</v>
+      </c>
+      <c r="E72" s="41">
+        <v>174.066398935249</v>
+      </c>
+      <c r="F72" s="43">
+        <v>4390.7022047564396</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="28"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="42"/>
+      <c r="C73" s="40">
+        <v>0.406666666668</v>
+      </c>
+      <c r="D73" s="40">
+        <v>279.13115608910198</v>
+      </c>
+      <c r="E73" s="41">
+        <v>4.8395579726709999</v>
+      </c>
+      <c r="F73" s="43">
+        <v>1959.5437880939301</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="28"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="42"/>
+      <c r="C74" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D74" s="40">
+        <v>231.19440780618501</v>
+      </c>
+      <c r="E74" s="41">
+        <v>274.20319000586699</v>
+      </c>
+      <c r="F74" s="43">
+        <v>2816.5380192216398</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="28"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="42"/>
+      <c r="C75" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D75" s="40">
+        <v>63.156492192507997</v>
+      </c>
+      <c r="E75" s="41">
+        <v>182.35477272065401</v>
+      </c>
+      <c r="F75" s="43">
+        <v>4523.76504867722</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="28"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42"/>
+      <c r="C76" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D76" s="40">
+        <v>171.98933073845501</v>
+      </c>
+      <c r="E76" s="41">
+        <v>150.646987126959</v>
+      </c>
+      <c r="F76" s="43">
+        <v>2001.3611335364201</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="42"/>
+      <c r="C77" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D77" s="40">
+        <v>201.004195575523</v>
+      </c>
+      <c r="E77" s="41">
+        <v>203.82821363250599</v>
+      </c>
+      <c r="F77" s="43">
+        <v>1875.6411642042999</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="42"/>
+      <c r="C78" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D78" s="40">
+        <v>64.853745134050996</v>
+      </c>
+      <c r="E78" s="41">
+        <v>299.57965422119599</v>
+      </c>
+      <c r="F78" s="43">
+        <v>2253.8048977603198</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="28"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="42"/>
+      <c r="C79" s="40">
+        <v>101.879000324511</v>
+      </c>
+      <c r="D79" s="40">
+        <v>93.418789483572994</v>
+      </c>
+      <c r="E79" s="41">
+        <v>132.017320097896</v>
+      </c>
+      <c r="F79" s="43">
+        <v>4998.0473158856703</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="28"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="42"/>
+      <c r="C80" s="40">
+        <v>182.187607068067</v>
+      </c>
+      <c r="D80" s="40">
+        <v>220.089810402371</v>
+      </c>
+      <c r="E80" s="41">
+        <v>123.021124288831</v>
+      </c>
+      <c r="F80" s="43">
+        <v>572.09706963462804</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="42"/>
+      <c r="C81" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D81" s="40">
+        <v>54.558839518341003</v>
+      </c>
+      <c r="E81" s="41">
+        <v>99.442854451214998</v>
+      </c>
+      <c r="F81" s="43">
+        <v>3157.0846209750698</v>
+      </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="42"/>
+      <c r="C82" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D82" s="40">
+        <v>157.425506887561</v>
+      </c>
+      <c r="E82" s="41">
+        <v>68.097416101297995</v>
+      </c>
+      <c r="F82" s="43">
+        <v>3139.31357177473</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="42"/>
+      <c r="C83" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D83" s="40">
+        <v>28.640703112682999</v>
+      </c>
+      <c r="E83" s="41">
+        <v>1.0166666666699999</v>
+      </c>
+      <c r="F83" s="43">
+        <v>5403.98954776336</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="42"/>
+      <c r="C84" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D84" s="40">
+        <v>74.879614645074994</v>
+      </c>
+      <c r="E84" s="41">
+        <v>120.601248525366</v>
+      </c>
+      <c r="F84" s="43">
+        <v>3382.5678702792302</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
+      <c r="C85" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D85" s="40">
+        <v>119.175320902888</v>
+      </c>
+      <c r="E85" s="41">
+        <v>99.522924284861006</v>
+      </c>
+      <c r="F85" s="43">
+        <v>3949.2566508592099</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="42"/>
+      <c r="C86" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D86" s="40">
+        <v>238.78503109151401</v>
+      </c>
+      <c r="E86" s="41">
+        <v>100.946849817154</v>
+      </c>
+      <c r="F86" s="43">
+        <v>3287.01872485896</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="42"/>
+      <c r="C87" s="40">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D87" s="40">
+        <v>126.972315210313</v>
+      </c>
+      <c r="E87" s="41">
+        <v>58.207885526173001</v>
+      </c>
+      <c r="F87" s="43">
+        <v>4104.7926329915799</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="42"/>
+      <c r="C88" s="40">
+        <v>160.08967396922199</v>
+      </c>
+      <c r="D88" s="40">
+        <v>103.309014309432</v>
+      </c>
+      <c r="E88" s="41">
+        <v>23.706928886707001</v>
+      </c>
+      <c r="F88" s="43">
+        <v>3729.1285866571802</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="42"/>
+      <c r="C89" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D89" s="40">
+        <v>273.06233055393102</v>
+      </c>
+      <c r="E89" s="41">
+        <v>128.46159969558201</v>
+      </c>
+      <c r="F89" s="43">
+        <v>3277.1221393543301</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="42"/>
+      <c r="C90" s="28">
+        <v>21.789564018377</v>
+      </c>
+      <c r="D90" s="40">
+        <v>132.52447143319799</v>
+      </c>
+      <c r="E90" s="41">
+        <v>13.108718594983999</v>
+      </c>
+      <c r="F90" s="43">
+        <v>4264.2051652938499</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="42"/>
+      <c r="C91" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D91" s="40">
+        <v>115.753648862123</v>
+      </c>
+      <c r="E91" s="41">
+        <v>171.497036478935</v>
+      </c>
+      <c r="F91" s="43">
+        <v>2092.8129180015098</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="42"/>
+      <c r="C92" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D92" s="40">
+        <v>152.139948549964</v>
+      </c>
+      <c r="E92" s="41">
+        <v>304.89662509580802</v>
+      </c>
+      <c r="F92" s="43">
+        <v>4354.1924553790104</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
+      <c r="C93" s="28">
+        <v>112.500862500324</v>
+      </c>
+      <c r="D93" s="40">
+        <v>482.45087853223799</v>
+      </c>
+      <c r="E93" s="41">
+        <v>275.60847246113099</v>
+      </c>
+      <c r="F93" s="43">
+        <v>1289.94031046489</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="42"/>
+      <c r="C94" s="28">
+        <v>11.602086059326</v>
+      </c>
+      <c r="D94" s="40">
+        <v>37.699815808903999</v>
+      </c>
+      <c r="E94" s="41">
+        <v>267.05854666033503</v>
+      </c>
+      <c r="F94" s="43">
+        <v>5218.0755073747596</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="42"/>
+      <c r="C95" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D95" s="40">
+        <v>126.538864944913</v>
+      </c>
+      <c r="E95" s="41">
+        <v>119.057040688097</v>
+      </c>
+      <c r="F95" s="43">
+        <v>4587.9573233677602</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="42"/>
+      <c r="C96" s="28">
+        <v>97.788080912267006</v>
+      </c>
+      <c r="D96" s="40">
+        <v>54.55568008046</v>
+      </c>
+      <c r="E96" s="41">
+        <v>122.210372524044</v>
+      </c>
+      <c r="F96" s="43">
+        <v>2304.0162693849502</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="42"/>
+      <c r="C97" s="28">
+        <v>196.729593490806</v>
+      </c>
+      <c r="D97" s="40">
+        <v>50.125544825131001</v>
+      </c>
+      <c r="E97" s="41">
+        <v>236.597754564827</v>
+      </c>
+      <c r="F97" s="43">
+        <v>5571.7117639563703</v>
+      </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="42"/>
+      <c r="C98" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D98" s="40">
+        <v>54.512139406551</v>
+      </c>
+      <c r="E98" s="41">
+        <v>1.8300000000059999</v>
+      </c>
+      <c r="F98" s="43">
+        <v>4174.7324031058797</v>
+      </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="42"/>
+      <c r="C99" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D99" s="40">
+        <v>168.59346917802</v>
+      </c>
+      <c r="E99" s="41">
+        <v>354.30661885621799</v>
+      </c>
+      <c r="F99" s="43">
+        <v>4886.78390264274</v>
+      </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="42"/>
+      <c r="C100" s="28">
+        <v>0.50833333333499997</v>
+      </c>
+      <c r="D100" s="40">
+        <v>134.78976177774899</v>
+      </c>
+      <c r="E100" s="41">
+        <v>203.84633882647199</v>
+      </c>
+      <c r="F100" s="43">
+        <v>1694.8168950829099</v>
+      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="42"/>
+      <c r="C101" s="28">
+        <v>119.95006219828601</v>
+      </c>
+      <c r="D101" s="40">
+        <v>169.33559647299501</v>
+      </c>
+      <c r="E101" s="41">
+        <v>319.30986083003398</v>
+      </c>
+      <c r="F101" s="43">
+        <v>4627.65229760486</v>
+      </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
